--- a/BackTest/2020-01-12 BackTest DVP.xlsx
+++ b/BackTest/2020-01-12 BackTest DVP.xlsx
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -6996,13 +6996,17 @@
         <v>4.6181</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="K189" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
@@ -7031,14 +7035,22 @@
         <v>4.613366666666666</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K190" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7084,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +7125,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7142,8 +7166,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7177,8 +7207,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7212,8 +7248,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7247,8 +7289,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7282,8 +7330,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7317,8 +7371,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +7412,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7453,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7422,8 +7494,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7457,8 +7535,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +7576,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +7617,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7556,14 +7652,22 @@
         <v>4.558533333333331</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>4.559</v>
+      </c>
+      <c r="K205" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7597,8 +7701,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7632,8 +7742,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +7783,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +7824,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +7865,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +7906,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7807,8 +7947,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7842,8 +7988,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +8029,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8070,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8111,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7982,8 +8152,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8017,8 +8193,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8052,8 +8234,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8087,8 +8275,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>4.489</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8116,18 +8310,18 @@
         <v>4.517849999999998</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -8157,15 +8351,15 @@
         <v>4.516649999999998</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8198,15 +8392,15 @@
         <v>4.515933333333333</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>4.559</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8239,15 +8433,15 @@
         <v>4.515199999999999</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>4.558</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8280,15 +8474,15 @@
         <v>4.515483333333333</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>4.558</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8327,7 +8521,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8366,7 +8562,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8399,15 +8597,15 @@
         <v>4.50725</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8446,7 +8644,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8479,15 +8679,15 @@
         <v>4.497433333333333</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>4.531</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8520,15 +8720,15 @@
         <v>4.494566666666667</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>4.361</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8561,22 +8761,22 @@
         <v>4.490533333333333</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>4.489</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>1</v>
+        <v>0.9925495656048118</v>
       </c>
     </row>
     <row r="233">
@@ -8602,20 +8802,14 @@
         <v>4.485383333333332</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>4.361</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8643,20 +8837,14 @@
         <v>4.483099999999999</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>4.453</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8684,20 +8872,14 @@
         <v>4.481799999999998</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>4.453</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8725,20 +8907,14 @@
         <v>4.477599999999998</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>4.453</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8766,20 +8942,14 @@
         <v>4.474916666666664</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8807,20 +8977,14 @@
         <v>4.476516666666665</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>4.496</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8848,20 +9012,14 @@
         <v>4.475966666666665</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>4.369</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8889,20 +9047,14 @@
         <v>4.476683333333331</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>4.443</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8930,20 +9082,14 @@
         <v>4.477399999999998</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>4.443</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8971,20 +9117,14 @@
         <v>4.475999999999998</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>4.442</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9012,20 +9152,14 @@
         <v>4.477016666666665</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>4.442</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9053,20 +9187,14 @@
         <v>4.478016666666664</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>4.442</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9100,14 +9228,12 @@
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>4.491</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4.442</v>
+      </c>
+      <c r="K245" t="n">
+        <v>4.442</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9135,18 +9261,18 @@
         <v>4.479849999999998</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M246" t="n">
@@ -9176,18 +9302,18 @@
         <v>4.479066666666665</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>4.445</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M247" t="n">
@@ -9217,15 +9343,15 @@
         <v>4.479099999999999</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>4.491</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9258,15 +9384,15 @@
         <v>4.477783333333332</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>4.491</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9299,15 +9425,15 @@
         <v>4.478799999999999</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
         <v>4.442</v>
       </c>
-      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9340,15 +9466,15 @@
         <v>4.478399999999999</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>4.491</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9381,15 +9507,15 @@
         <v>4.476133333333333</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>4.377</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9422,15 +9548,15 @@
         <v>4.47615</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>4.491</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9463,15 +9589,15 @@
         <v>4.477149999999999</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>4.491</v>
-      </c>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9504,15 +9630,15 @@
         <v>4.475216666666666</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9545,15 +9671,15 @@
         <v>4.4762</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9586,15 +9712,15 @@
         <v>4.473983333333334</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>4.377</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9627,15 +9753,15 @@
         <v>4.474483333333334</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9668,15 +9794,15 @@
         <v>4.474983333333335</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9709,15 +9835,15 @@
         <v>4.471716666666667</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>4.392</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9750,15 +9876,15 @@
         <v>4.468616666666668</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9791,15 +9917,15 @@
         <v>4.466500000000001</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>4.385</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9832,22 +9958,22 @@
         <v>4.464666666666668</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>4.442</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>1</v>
+        <v>0.9990522287257991</v>
       </c>
     </row>
     <row r="264">
@@ -9873,20 +9999,14 @@
         <v>4.462350000000001</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>4.42</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9914,20 +10034,14 @@
         <v>4.459416666666667</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>4.383</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9955,20 +10069,14 @@
         <v>4.458866666666666</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>4.459</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest DVP.xlsx
+++ b/BackTest/2020-01-12 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N335"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,24 +682,15 @@
         <v>-645243.0973465223</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,24 +715,15 @@
         <v>-645243.0973465223</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -792,24 +748,19 @@
         <v>-645123.0973465223</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.311</v>
       </c>
       <c r="J11" t="n">
         <v>4.311</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,24 +785,23 @@
         <v>-333439.9393465223</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4.386</v>
       </c>
       <c r="J12" t="n">
-        <v>4.386</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -876,24 +826,23 @@
         <v>-330203.9393465223</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.408</v>
       </c>
       <c r="J13" t="n">
-        <v>4.408</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -918,24 +867,23 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="J14" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -960,24 +908,23 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4.447</v>
       </c>
       <c r="J15" t="n">
-        <v>4.447</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1002,24 +949,23 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.447</v>
       </c>
       <c r="J16" t="n">
-        <v>4.447</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1044,24 +990,23 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4.448</v>
       </c>
       <c r="J17" t="n">
-        <v>4.448</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1086,24 +1031,23 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4.448</v>
       </c>
       <c r="J18" t="n">
-        <v>4.448</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1128,24 +1072,23 @@
         <v>-159044.2350465223</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4.448</v>
       </c>
       <c r="J19" t="n">
-        <v>4.448</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1170,24 +1113,23 @@
         <v>-278289.6919465223</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.361</v>
       </c>
       <c r="J20" t="n">
-        <v>4.361</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1212,24 +1154,23 @@
         <v>-326182.1772465223</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4.354</v>
       </c>
       <c r="J21" t="n">
-        <v>4.354</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1254,24 +1195,23 @@
         <v>-220297.6625465223</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="J22" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1296,24 +1236,23 @@
         <v>-120297.6625465223</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="J23" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1338,24 +1277,23 @@
         <v>-47363.73204652227</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="J24" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1380,24 +1318,23 @@
         <v>-7666.221546522276</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4.428</v>
       </c>
       <c r="J25" t="n">
-        <v>4.428</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1422,24 +1359,23 @@
         <v>58263.20655347773</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="J26" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>4.311</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1464,22 +1400,23 @@
         <v>771936.2756534776</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>4.619</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1504,22 +1441,23 @@
         <v>1811087.766553478</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>4.69</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1546,20 +1484,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1586,20 +1523,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1626,20 +1562,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1666,20 +1601,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1706,20 +1640,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1746,20 +1679,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1784,22 +1716,21 @@
         <v>1985929.069753477</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1826,20 +1757,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1866,20 +1796,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1906,20 +1835,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1946,20 +1874,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1986,20 +1913,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2026,20 +1952,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2066,20 +1991,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2106,20 +2030,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2146,20 +2069,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2186,20 +2108,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2226,20 +2147,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2266,20 +2186,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2306,20 +2225,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2344,22 +2262,21 @@
         <v>2105891.986818043</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2384,22 +2301,21 @@
         <v>2150853.899118043</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2424,22 +2340,21 @@
         <v>2150454.474818042</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2464,22 +2379,21 @@
         <v>2165538.832318042</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2504,22 +2418,21 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2544,22 +2457,21 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2584,22 +2496,21 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2624,22 +2535,21 @@
         <v>2372560.363418042</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2664,22 +2574,21 @@
         <v>2372560.363418042</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2706,20 +2615,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2746,20 +2654,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2786,20 +2693,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2826,20 +2732,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2866,20 +2771,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2906,20 +2810,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2946,20 +2849,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2986,18 +2888,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
       </c>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3024,16 +2927,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3060,16 +2966,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3096,16 +3005,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3132,16 +3044,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3168,16 +3083,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3204,16 +3122,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3240,16 +3161,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3276,16 +3200,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3312,16 +3239,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3348,16 +3278,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3384,16 +3317,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3420,16 +3356,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3456,16 +3395,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3492,16 +3434,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3528,16 +3473,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3564,16 +3512,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3600,16 +3551,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3636,16 +3590,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3670,18 +3627,23 @@
         <v>3078756.775118042</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.1842832289492</v>
+      </c>
       <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>1.035689293212037</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3708,16 +3670,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3742,18 +3701,15 @@
         <v>3075016.543718042</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3780,16 +3736,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3816,16 +3769,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3852,16 +3802,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3886,18 +3833,15 @@
         <v>2945939.138718043</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3922,18 +3866,15 @@
         <v>2936156.292718043</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3958,18 +3899,15 @@
         <v>2936057.292718043</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3994,18 +3932,15 @@
         <v>2896057.292718043</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4030,18 +3965,15 @@
         <v>2896156.292718043</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4068,16 +4000,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4102,18 +4031,15 @@
         <v>3790712.771018043</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4138,18 +4064,15 @@
         <v>3790811.771018043</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4174,18 +4097,15 @@
         <v>3897748.389018042</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4210,18 +4130,15 @@
         <v>3897748.389018042</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4246,18 +4163,15 @@
         <v>3897748.389018042</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4282,18 +4196,15 @@
         <v>3897847.389018042</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4318,18 +4229,15 @@
         <v>3897505.725518043</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4354,18 +4262,15 @@
         <v>3876385.351418043</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4390,18 +4295,15 @@
         <v>3875395.428518042</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4428,16 +4330,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4462,18 +4361,15 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4500,16 +4396,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4536,16 +4429,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4572,16 +4462,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4608,16 +4495,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4644,16 +4528,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4680,16 +4561,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4716,16 +4594,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4752,16 +4627,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4788,16 +4660,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4824,16 +4693,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4860,16 +4726,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4896,16 +4759,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4932,16 +4792,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4968,16 +4825,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5004,16 +4858,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5040,16 +4891,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5076,16 +4924,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5112,16 +4957,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5148,16 +4990,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5184,16 +5023,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5220,16 +5056,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5256,16 +5089,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5292,16 +5122,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5328,16 +5155,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5364,16 +5188,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5400,16 +5221,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5436,16 +5254,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5472,16 +5287,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5508,16 +5320,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5544,16 +5353,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5580,16 +5386,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5616,16 +5419,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5652,16 +5452,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5688,16 +5485,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5724,16 +5518,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5760,16 +5551,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5796,16 +5584,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5832,16 +5617,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5868,16 +5650,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5904,16 +5683,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5940,16 +5716,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5976,16 +5749,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6012,16 +5782,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6048,16 +5815,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6084,16 +5848,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6120,16 +5881,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6156,16 +5914,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6192,16 +5947,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6228,16 +5980,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6264,16 +6013,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6300,16 +6046,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6336,16 +6079,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6372,16 +6112,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6408,16 +6145,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6444,16 +6178,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6480,16 +6211,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6516,16 +6244,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6552,16 +6277,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6588,16 +6310,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6624,16 +6343,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6660,16 +6376,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6696,16 +6409,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6732,16 +6442,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6768,16 +6475,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6804,16 +6508,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6840,16 +6541,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6876,16 +6574,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6912,16 +6607,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6948,16 +6640,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6984,16 +6673,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7020,16 +6706,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7056,16 +6739,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7092,16 +6772,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7128,16 +6805,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7164,16 +6838,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7200,16 +6871,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7236,16 +6904,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7272,16 +6937,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7306,18 +6968,15 @@
         <v>5425136.275718506</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7342,18 +7001,15 @@
         <v>5425136.275718506</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7378,18 +7034,15 @@
         <v>5423816.023518506</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7414,18 +7067,15 @@
         <v>4852489.087918507</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7452,16 +7102,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7488,16 +7135,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7524,16 +7168,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7560,16 +7201,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7596,16 +7234,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7632,16 +7267,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7666,18 +7298,15 @@
         <v>5053844.633818507</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7702,18 +7331,15 @@
         <v>5257377.330218507</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7738,18 +7364,15 @@
         <v>5257377.330218507</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7774,18 +7397,15 @@
         <v>5257377.330218507</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7810,18 +7430,15 @@
         <v>5259875.330218507</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7846,18 +7463,15 @@
         <v>5258575.330218507</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7884,16 +7498,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7918,18 +7529,15 @@
         <v>6548880.287518507</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7954,18 +7562,15 @@
         <v>6300966.809118506</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7992,16 +7597,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8028,16 +7630,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8062,18 +7661,15 @@
         <v>6302166.809118506</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8098,18 +7694,15 @@
         <v>6264491.630618506</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8134,18 +7727,15 @@
         <v>6147434.826318506</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8172,16 +7762,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8208,16 +7795,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8244,16 +7828,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8280,16 +7861,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8316,16 +7894,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8352,16 +7927,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8388,16 +7960,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8424,16 +7993,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8460,16 +8026,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8496,16 +8059,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8532,16 +8092,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8568,16 +8125,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8604,16 +8158,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8640,16 +8191,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8676,16 +8224,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8712,16 +8257,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8748,16 +8290,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8784,16 +8323,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8820,16 +8356,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8856,16 +8389,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8892,16 +8422,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8928,16 +8455,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8964,16 +8488,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9000,16 +8521,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9036,16 +8554,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9072,16 +8587,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9108,16 +8620,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9144,16 +8653,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9180,16 +8686,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9216,16 +8719,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9252,16 +8752,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9288,16 +8785,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9324,16 +8818,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9360,16 +8851,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9396,16 +8884,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9432,16 +8917,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9468,16 +8950,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9504,16 +8983,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9540,16 +9016,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9576,16 +9049,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9612,16 +9082,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9648,16 +9115,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9684,16 +9148,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9720,16 +9181,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9756,16 +9214,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9792,16 +9247,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9828,16 +9280,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9864,16 +9313,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9900,16 +9346,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9936,16 +9379,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9972,16 +9412,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10008,16 +9445,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10044,16 +9478,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10080,16 +9511,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10116,16 +9544,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10152,16 +9577,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10188,16 +9610,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10224,16 +9643,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10258,18 +9674,21 @@
         <v>4808770.986718505</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>4.492</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10294,18 +9713,21 @@
         <v>4789385.955218505</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>4.558</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10332,16 +9754,17 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10366,18 +9789,21 @@
         <v>4741600.792618505</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>4.559</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10404,16 +9830,17 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10438,18 +9865,21 @@
         <v>4741710.792618505</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>4.491</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10476,16 +9906,17 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10512,16 +9943,17 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10548,16 +9980,17 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10584,16 +10017,17 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10620,16 +10054,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10656,16 +10091,17 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10692,16 +10128,17 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10728,16 +10165,17 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10764,16 +10202,17 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10800,16 +10239,17 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10834,18 +10274,21 @@
         <v>2967170.737010431</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>4.559</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10870,18 +10313,21 @@
         <v>2967170.737010431</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>4.558</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10906,18 +10352,21 @@
         <v>2957387.891010431</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>4.558</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10942,18 +10391,21 @@
         <v>2957497.891010431</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10978,18 +10430,21 @@
         <v>2370795.672510431</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>4.558</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11014,18 +10469,21 @@
         <v>2370795.672510431</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11050,18 +10508,21 @@
         <v>2375063.725310431</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11086,18 +10547,21 @@
         <v>2284393.523610431</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>4.531</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11122,18 +10586,21 @@
         <v>2400776.123210431</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>4.361</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11158,18 +10625,21 @@
         <v>2400612.338910431</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>4.478</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11194,18 +10664,21 @@
         <v>2400732.338910431</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>4.361</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11230,18 +10703,21 @@
         <v>2400732.338910431</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>4.453</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11268,16 +10744,17 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11302,18 +10779,21 @@
         <v>2344446.022210431</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>4.453</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11338,22 +10818,21 @@
         <v>2344566.022210431</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="n">
         <v>4.37</v>
       </c>
-      <c r="K297" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11378,24 +10857,21 @@
         <v>2312554.467410431</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>4.496</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11420,24 +10896,21 @@
         <v>2312674.467410431</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>4.368</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11462,24 +10935,21 @@
         <v>2312674.467410431</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>4.443</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11504,24 +10974,21 @@
         <v>1917674.467410431</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>4.443</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11546,24 +11013,21 @@
         <v>1917674.467410431</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>4.442</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11588,24 +11052,21 @@
         <v>1917674.467410431</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>4.442</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11630,26 +11091,21 @@
         <v>1918007.467410431</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="n">
         <v>4.442</v>
       </c>
-      <c r="K304" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11674,24 +11130,21 @@
         <v>1917871.272010431</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>4.491</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11716,26 +11169,21 @@
         <v>1916083.302110431</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="n">
         <v>4.49</v>
       </c>
-      <c r="K306" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11760,26 +11208,21 @@
         <v>1916203.302110431</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="n">
         <v>4.442</v>
       </c>
-      <c r="K307" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11804,24 +11247,21 @@
         <v>1916203.302110431</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>4.491</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11846,24 +11286,21 @@
         <v>1901108.880110431</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>4.491</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11888,24 +11325,21 @@
         <v>1901308.880110431</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
+        <v>4.442</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11930,24 +11364,21 @@
         <v>1780002.775310431</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>4.491</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11972,24 +11403,21 @@
         <v>1780122.775310431</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12014,24 +11442,21 @@
         <v>1802122.775310431</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>4.491</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12056,24 +11481,21 @@
         <v>1801743.156310431</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12100,22 +11522,17 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12140,24 +11557,21 @@
         <v>1741943.156310431</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12184,22 +11598,17 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12226,22 +11635,17 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12268,22 +11672,17 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12310,22 +11709,17 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12352,22 +11746,17 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12394,22 +11783,17 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12436,22 +11820,17 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12476,24 +11855,21 @@
         <v>1121829.676810431</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12520,22 +11896,17 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12560,24 +11931,21 @@
         <v>920097.4755104313</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
+        <v>4.459</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12602,24 +11970,21 @@
         <v>920097.4755104313</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>4.391</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12644,24 +12009,21 @@
         <v>920217.4755104313</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>4.391</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12686,24 +12048,21 @@
         <v>1031801.526433088</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>4.444</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12728,24 +12087,21 @@
         <v>1031801.526433088</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>4.555</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12770,24 +12126,21 @@
         <v>1022913.526433088</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>4.555</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12812,24 +12165,21 @@
         <v>807187.1088330878</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12854,24 +12204,21 @@
         <v>789903.3692330879</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="n">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12896,24 +12243,21 @@
         <v>790014.3692330879</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12938,26 +12282,23 @@
         <v>790014.3692330879</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest DVP.xlsx
+++ b/BackTest/2020-01-12 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,10 +550,14 @@
         <v>-644564.3217465223</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.303</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -583,11 +587,19 @@
         <v>-636032.0232465223</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +628,19 @@
         <v>-636032.0232465223</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +669,19 @@
         <v>-618416.1068465223</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +710,19 @@
         <v>-645243.0973465223</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.386</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +751,19 @@
         <v>-645243.0973465223</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,15 +792,19 @@
         <v>-645123.0973465223</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>4.311</v>
       </c>
       <c r="J11" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>4.303</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,17 +833,17 @@
         <v>-333439.9393465223</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>4.386</v>
       </c>
       <c r="J12" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -826,17 +874,17 @@
         <v>-330203.9393465223</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>4.408</v>
       </c>
       <c r="J13" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -867,17 +915,17 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>4.44</v>
       </c>
       <c r="J14" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -908,13 +956,13 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>4.447</v>
       </c>
       <c r="J15" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -949,13 +997,11 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -990,13 +1036,13 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>4.448</v>
       </c>
       <c r="J17" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1031,13 +1077,11 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1072,13 +1116,13 @@
         <v>-159044.2350465223</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>4.448</v>
       </c>
       <c r="J19" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1113,13 +1157,11 @@
         <v>-278289.6919465223</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1154,13 +1196,13 @@
         <v>-326182.1772465223</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>4.354</v>
       </c>
       <c r="J21" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1195,13 +1237,13 @@
         <v>-220297.6625465223</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>4.32</v>
       </c>
       <c r="J22" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1236,13 +1278,13 @@
         <v>-120297.6625465223</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>4.41</v>
       </c>
       <c r="J23" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1277,13 +1319,13 @@
         <v>-47363.73204652227</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>4.42</v>
       </c>
       <c r="J24" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1318,13 +1360,13 @@
         <v>-7666.221546522276</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>4.428</v>
       </c>
       <c r="J25" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1359,13 +1401,13 @@
         <v>58263.20655347773</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>4.54</v>
       </c>
       <c r="J26" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1400,13 +1442,13 @@
         <v>771936.2756534776</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>4.619</v>
       </c>
       <c r="J27" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1441,13 +1483,11 @@
         <v>1811087.766553478</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1486,7 +1526,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1525,7 +1565,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1564,7 +1604,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1603,7 +1643,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1642,7 +1682,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1681,7 +1721,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1716,11 +1756,11 @@
         <v>1985929.069753477</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1759,7 +1799,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1798,7 +1838,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1837,7 +1877,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1876,7 +1916,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1915,7 +1955,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1954,7 +1994,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1993,7 +2033,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2032,7 +2072,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2071,7 +2111,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2110,7 +2150,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2149,7 +2189,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2188,7 +2228,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2227,7 +2267,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2262,11 +2302,11 @@
         <v>2105891.986818043</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2301,11 +2341,11 @@
         <v>2150853.899118043</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2340,11 +2380,11 @@
         <v>2150454.474818042</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2379,11 +2419,11 @@
         <v>2165538.832318042</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2418,11 +2458,11 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2457,11 +2497,11 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2496,11 +2536,11 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2535,11 +2575,11 @@
         <v>2372560.363418042</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2574,11 +2614,11 @@
         <v>2372560.363418042</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2617,7 +2657,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2656,7 +2696,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2695,7 +2735,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2734,7 +2774,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2773,7 +2813,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2812,7 +2852,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2851,7 +2891,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2890,7 +2930,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2929,7 +2969,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2968,7 +3008,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3007,7 +3047,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3046,7 +3086,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3085,7 +3125,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3124,7 +3164,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3163,7 +3203,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3202,7 +3242,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3241,7 +3281,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3280,7 +3320,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3319,7 +3359,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3358,7 +3398,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3397,7 +3437,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3436,7 +3476,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3475,7 +3515,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3514,7 +3554,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3553,7 +3593,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3592,7 +3632,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3627,617 +3667,725 @@
         <v>3078756.775118042</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>4.311</v>
+        <v>4.303</v>
       </c>
       <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3078756.775118042</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3740.2314</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3075016.543718042</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1254.7686</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3075016.543718042</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F88" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2875016.543718042</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4.901</v>
+      </c>
+      <c r="F89" t="n">
+        <v>261022.595</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3136039.138718043</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4.901</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.901</v>
+      </c>
+      <c r="F90" t="n">
+        <v>190100</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2945939.138718043</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9782.846</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2936156.292718043</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.078</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5.078</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.078</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5.078</v>
+      </c>
+      <c r="F92" t="n">
+        <v>99</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2936057.292718043</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.904</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.891</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.904</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.891</v>
+      </c>
+      <c r="F93" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2896057.292718043</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="F94" t="n">
+        <v>99</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2896156.292718043</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4.902</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.902</v>
+      </c>
+      <c r="F95" t="n">
+        <v>14509.7349</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2881646.557818043</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5.066</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5.066</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.066</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.066</v>
+      </c>
+      <c r="F96" t="n">
+        <v>909066.2132</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3790712.771018043</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5.082</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5.082</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.082</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5.082</v>
+      </c>
+      <c r="F97" t="n">
+        <v>99</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3790811.771018043</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F98" t="n">
+        <v>106936.618</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3897748.389018042</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F99" t="n">
+        <v>89208.12360000001</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3897748.389018042</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5.018</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.018</v>
+      </c>
+      <c r="F100" t="n">
+        <v>12969.5168</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3897748.389018042</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5.126</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5.126</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5.126</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5.126</v>
+      </c>
+      <c r="F101" t="n">
+        <v>99</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3897847.389018042</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="F102" t="n">
+        <v>341.6635</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3897505.725518043</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1.1842832289492</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.035689293212037</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="C85" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="D85" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="E85" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G85" t="n">
-        <v>3078756.775118042</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="C86" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="D86" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E86" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3740.2314</v>
-      </c>
-      <c r="G86" t="n">
-        <v>3075016.543718042</v>
-      </c>
-      <c r="H86" t="n">
-        <v>3</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="C87" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="D87" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="E87" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1254.7686</v>
-      </c>
-      <c r="G87" t="n">
-        <v>3075016.543718042</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="C88" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D88" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="E88" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F88" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2875016.543718042</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="C89" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="D89" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E89" t="n">
-        <v>4.901</v>
-      </c>
-      <c r="F89" t="n">
-        <v>261022.595</v>
-      </c>
-      <c r="G89" t="n">
-        <v>3136039.138718043</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>4.901</v>
-      </c>
-      <c r="C90" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D90" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E90" t="n">
-        <v>4.901</v>
-      </c>
-      <c r="F90" t="n">
-        <v>190100</v>
-      </c>
-      <c r="G90" t="n">
-        <v>2945939.138718043</v>
-      </c>
-      <c r="H90" t="n">
-        <v>3</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C91" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D91" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E91" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F91" t="n">
-        <v>9782.846</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2936156.292718043</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5.078</v>
-      </c>
-      <c r="C92" t="n">
-        <v>5.078</v>
-      </c>
-      <c r="D92" t="n">
-        <v>5.078</v>
-      </c>
-      <c r="E92" t="n">
-        <v>5.078</v>
-      </c>
-      <c r="F92" t="n">
-        <v>99</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2936057.292718043</v>
-      </c>
-      <c r="H92" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4.904</v>
-      </c>
-      <c r="C93" t="n">
-        <v>4.891</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4.904</v>
-      </c>
-      <c r="E93" t="n">
-        <v>4.891</v>
-      </c>
-      <c r="F93" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G93" t="n">
-        <v>2896057.292718043</v>
-      </c>
-      <c r="H93" t="n">
-        <v>3</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>5.069</v>
-      </c>
-      <c r="C94" t="n">
-        <v>5.069</v>
-      </c>
-      <c r="D94" t="n">
-        <v>5.069</v>
-      </c>
-      <c r="E94" t="n">
-        <v>5.069</v>
-      </c>
-      <c r="F94" t="n">
-        <v>99</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2896156.292718043</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="C95" t="n">
-        <v>4.902</v>
-      </c>
-      <c r="D95" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="E95" t="n">
-        <v>4.902</v>
-      </c>
-      <c r="F95" t="n">
-        <v>14509.7349</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2881646.557818043</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>5.066</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.066</v>
-      </c>
-      <c r="D96" t="n">
-        <v>5.066</v>
-      </c>
-      <c r="E96" t="n">
-        <v>5.066</v>
-      </c>
-      <c r="F96" t="n">
-        <v>909066.2132</v>
-      </c>
-      <c r="G96" t="n">
-        <v>3790712.771018043</v>
-      </c>
-      <c r="H96" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>5.082</v>
-      </c>
-      <c r="C97" t="n">
-        <v>5.082</v>
-      </c>
-      <c r="D97" t="n">
-        <v>5.082</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5.082</v>
-      </c>
-      <c r="F97" t="n">
-        <v>99</v>
-      </c>
-      <c r="G97" t="n">
-        <v>3790811.771018043</v>
-      </c>
-      <c r="H97" t="n">
-        <v>3</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C98" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="D98" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F98" t="n">
-        <v>106936.618</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3897748.389018042</v>
-      </c>
-      <c r="H98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="C99" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="D99" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E99" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="F99" t="n">
-        <v>89208.12360000001</v>
-      </c>
-      <c r="G99" t="n">
-        <v>3897748.389018042</v>
-      </c>
-      <c r="H99" t="n">
-        <v>3</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>5.018</v>
-      </c>
-      <c r="C100" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="D100" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E100" t="n">
-        <v>5.018</v>
-      </c>
-      <c r="F100" t="n">
-        <v>12969.5168</v>
-      </c>
-      <c r="G100" t="n">
-        <v>3897748.389018042</v>
-      </c>
-      <c r="H100" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>5.126</v>
-      </c>
-      <c r="C101" t="n">
-        <v>5.126</v>
-      </c>
-      <c r="D101" t="n">
-        <v>5.126</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5.126</v>
-      </c>
-      <c r="F101" t="n">
-        <v>99</v>
-      </c>
-      <c r="G101" t="n">
-        <v>3897847.389018042</v>
-      </c>
-      <c r="H101" t="n">
-        <v>3</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>5.125</v>
-      </c>
-      <c r="C102" t="n">
-        <v>5.125</v>
-      </c>
-      <c r="D102" t="n">
-        <v>5.125</v>
-      </c>
-      <c r="E102" t="n">
-        <v>5.125</v>
-      </c>
-      <c r="F102" t="n">
-        <v>341.6635</v>
-      </c>
-      <c r="G102" t="n">
-        <v>3897505.725518043</v>
-      </c>
-      <c r="H102" t="n">
-        <v>3</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>1.186029514292354</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.023559598787031</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4262,7 +4410,7 @@
         <v>3876385.351418043</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4295,7 +4443,7 @@
         <v>3875395.428518042</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4328,7 +4476,7 @@
         <v>3875494.428518042</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4361,7 +4509,7 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4394,7 +4542,7 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4427,7 +4575,7 @@
         <v>3989050.966518043</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4460,7 +4608,7 @@
         <v>3985188.790518043</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4493,7 +4641,7 @@
         <v>3985188.790518043</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4526,7 +4674,7 @@
         <v>3985287.790518043</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4559,7 +4707,7 @@
         <v>3969594.960618043</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4592,7 +4740,7 @@
         <v>3969594.960618043</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4625,7 +4773,7 @@
         <v>3966294.960618043</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4658,7 +4806,7 @@
         <v>3966294.960618043</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4691,7 +4839,7 @@
         <v>4335481.670918043</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4724,7 +4872,7 @@
         <v>4949021.343418043</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4757,7 +4905,7 @@
         <v>4882368.048918043</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4790,7 +4938,7 @@
         <v>4882479.048918043</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4823,7 +4971,7 @@
         <v>4865386.362418043</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4856,7 +5004,7 @@
         <v>4823823.512718043</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4889,7 +5037,7 @@
         <v>5606769.714118043</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4922,7 +5070,7 @@
         <v>5379681.074318043</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4955,7 +5103,7 @@
         <v>5414309.648818043</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4988,7 +5136,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5021,7 +5169,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5054,7 +5202,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5087,7 +5235,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5120,7 +5268,7 @@
         <v>5059576.173918043</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5153,7 +5301,7 @@
         <v>5059686.173918043</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5186,7 +5334,7 @@
         <v>5059686.173918043</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5219,7 +5367,7 @@
         <v>5059686.173918043</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5252,7 +5400,7 @@
         <v>5037857.025112164</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5285,7 +5433,7 @@
         <v>5037857.025112164</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5318,7 +5466,7 @@
         <v>5037857.025112164</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5351,7 +5499,7 @@
         <v>5037857.025112164</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5384,7 +5532,7 @@
         <v>5016027.876312165</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5417,7 +5565,7 @@
         <v>5016137.876312165</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5450,7 +5598,7 @@
         <v>5015807.155312165</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5483,7 +5631,7 @@
         <v>5015917.155312165</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5516,7 +5664,7 @@
         <v>5013751.160012165</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5549,7 +5697,7 @@
         <v>5018051.160012165</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5582,7 +5730,7 @@
         <v>5017752.684312165</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5978,7 +6126,7 @@
         <v>5034781.316912165</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6308,7 +6456,7 @@
         <v>5141579.784218505</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6968,7 +7116,7 @@
         <v>5425136.275718506</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7001,7 +7149,7 @@
         <v>5425136.275718506</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7034,7 +7182,7 @@
         <v>5423816.023518506</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7067,7 +7215,7 @@
         <v>4852489.087918507</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7298,7 +7446,7 @@
         <v>5053844.633818507</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7331,7 +7479,7 @@
         <v>5257377.330218507</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7364,7 +7512,7 @@
         <v>5257377.330218507</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7397,7 +7545,7 @@
         <v>5257377.330218507</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7430,7 +7578,7 @@
         <v>5259875.330218507</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7463,7 +7611,7 @@
         <v>5258575.330218507</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7529,7 +7677,7 @@
         <v>6548880.287518507</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7562,7 +7710,7 @@
         <v>6300966.809118506</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7595,7 +7743,7 @@
         <v>6302166.809118506</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7628,7 +7776,7 @@
         <v>6302166.809118506</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7661,7 +7809,7 @@
         <v>6302166.809118506</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7694,7 +7842,7 @@
         <v>6264491.630618506</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7727,7 +7875,7 @@
         <v>6147434.826318506</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7760,7 +7908,7 @@
         <v>6051867.792218506</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7793,7 +7941,7 @@
         <v>6051977.792218506</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7826,7 +7974,7 @@
         <v>6219235.376818506</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -9674,17 +9822,11 @@
         <v>4808770.986718505</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>4.492</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9713,17 +9855,11 @@
         <v>4789385.955218505</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>4.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9756,11 +9892,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9789,17 +9921,11 @@
         <v>4741600.792618505</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>4.559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9832,11 +9958,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9865,17 +9987,11 @@
         <v>4741710.792618505</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>4.491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9908,11 +10024,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9945,11 +10057,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9982,11 +10090,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10019,11 +10123,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10056,11 +10156,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10093,11 +10189,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10130,11 +10222,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10167,11 +10255,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10204,11 +10288,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10241,11 +10321,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10274,17 +10350,11 @@
         <v>2967170.737010431</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>4.559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10313,17 +10383,11 @@
         <v>2967170.737010431</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>4.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10352,17 +10416,11 @@
         <v>2957387.891010431</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>4.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10391,17 +10449,11 @@
         <v>2957497.891010431</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>4.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10430,17 +10482,11 @@
         <v>2370795.672510431</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>4.558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10469,17 +10515,11 @@
         <v>2370795.672510431</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>4.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10508,17 +10548,11 @@
         <v>2375063.725310431</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>4.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10547,17 +10581,11 @@
         <v>2284393.523610431</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>4.531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10586,17 +10614,11 @@
         <v>2400776.123210431</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>4.361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10625,17 +10647,11 @@
         <v>2400612.338910431</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>4.478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10664,17 +10680,11 @@
         <v>2400732.338910431</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>4.361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10703,17 +10713,11 @@
         <v>2400732.338910431</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>4.453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10746,11 +10750,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10779,17 +10779,11 @@
         <v>2344446.022210431</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>4.453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10818,17 +10812,11 @@
         <v>2344566.022210431</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>4.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10857,17 +10845,11 @@
         <v>2312554.467410431</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>4.496</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10896,17 +10878,11 @@
         <v>2312674.467410431</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>4.368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10935,17 +10911,11 @@
         <v>2312674.467410431</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>4.443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10974,17 +10944,11 @@
         <v>1917674.467410431</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>4.443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11013,17 +10977,11 @@
         <v>1917674.467410431</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>4.442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11052,17 +11010,11 @@
         <v>1917674.467410431</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>4.442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11091,17 +11043,11 @@
         <v>1918007.467410431</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>4.442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11130,17 +11076,11 @@
         <v>1917871.272010431</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>4.491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11169,17 +11109,11 @@
         <v>1916083.302110431</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>4.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11208,17 +11142,11 @@
         <v>1916203.302110431</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>4.442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11247,17 +11175,11 @@
         <v>1916203.302110431</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>4.491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11286,17 +11208,11 @@
         <v>1901108.880110431</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>4.491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11325,17 +11241,11 @@
         <v>1901308.880110431</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>4.442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11364,17 +11274,11 @@
         <v>1780002.775310431</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>4.491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11403,17 +11307,11 @@
         <v>1780122.775310431</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>4.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11442,17 +11340,11 @@
         <v>1802122.775310431</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>4.491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11481,17 +11373,11 @@
         <v>1801743.156310431</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>4.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11524,11 +11410,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11557,17 +11439,11 @@
         <v>1741943.156310431</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>4.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11600,11 +11476,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11637,11 +11509,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11674,11 +11542,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11711,11 +11575,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11748,11 +11608,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11785,11 +11641,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11822,11 +11674,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11855,17 +11703,11 @@
         <v>1121829.676810431</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>4.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11898,11 +11740,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11931,17 +11769,11 @@
         <v>920097.4755104313</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>4.459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11970,17 +11802,11 @@
         <v>920097.4755104313</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>4.391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12009,17 +11835,11 @@
         <v>920217.4755104313</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>4.391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12048,17 +11868,11 @@
         <v>1031801.526433088</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>4.444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12087,17 +11901,11 @@
         <v>1031801.526433088</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>4.555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12126,17 +11934,11 @@
         <v>1022913.526433088</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>4.555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12165,17 +11967,11 @@
         <v>807187.1088330878</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>4.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12204,17 +12000,11 @@
         <v>789903.3692330879</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>4.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12243,17 +12033,11 @@
         <v>790014.3692330879</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>4.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12282,23 +12066,17 @@
         <v>790014.3692330879</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>4.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
       <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest DVP.xlsx
+++ b/BackTest/2020-01-12 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>-563933.8249465222</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.287</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.287</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-645693.3512465223</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.388</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.287</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -556,9 +568,13 @@
         <v>4.303</v>
       </c>
       <c r="J5" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>4.287</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,19 +603,11 @@
         <v>-636032.0232465223</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,19 +636,11 @@
         <v>-636032.0232465223</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,60 +669,50 @@
         <v>-618416.1068465223</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="F9" t="n">
+        <v>26826.9905</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-645243.0973465223</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.386</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="F9" t="n">
-        <v>26826.9905</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-645243.0973465223</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.386</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -751,14 +741,10 @@
         <v>-645243.0973465223</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -797,9 +783,7 @@
       <c r="I11" t="n">
         <v>4.311</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -833,14 +817,10 @@
         <v>-333439.9393465223</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.386</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -879,9 +859,7 @@
       <c r="I13" t="n">
         <v>4.408</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -915,14 +893,10 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -956,14 +930,10 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.447</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1000,9 +970,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1041,9 +1009,7 @@
       <c r="I17" t="n">
         <v>4.448</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1080,9 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1116,14 +1080,10 @@
         <v>-159044.2350465223</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.448</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1160,9 +1120,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1196,14 +1154,10 @@
         <v>-326182.1772465223</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.354</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1237,14 +1191,10 @@
         <v>-220297.6625465223</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1278,14 +1228,10 @@
         <v>-120297.6625465223</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1319,14 +1265,10 @@
         <v>-47363.73204652227</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1365,9 +1307,7 @@
       <c r="I25" t="n">
         <v>4.428</v>
       </c>
-      <c r="J25" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1401,14 +1341,10 @@
         <v>58263.20655347773</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1442,14 +1378,10 @@
         <v>771936.2756534776</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.619</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1486,9 +1418,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1525,9 +1455,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1564,9 +1492,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1603,9 +1529,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1642,9 +1566,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1681,9 +1603,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1720,9 +1640,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1759,9 +1677,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1798,9 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1837,9 +1751,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,9 +1788,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1915,9 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,9 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1993,9 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2032,9 +1936,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2071,9 +1973,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2110,9 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2149,9 +2047,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,9 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2227,9 +2121,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,9 +2158,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2305,9 +2195,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2344,9 +2232,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2380,20 +2266,16 @@
         <v>2150454.474818042</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.303</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2419,17 +2301,11 @@
         <v>2165538.832318042</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2458,17 +2334,11 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2497,17 +2367,11 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2536,17 +2400,11 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2575,17 +2433,11 @@
         <v>2372560.363418042</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2614,17 +2466,11 @@
         <v>2372560.363418042</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2653,17 +2499,11 @@
         <v>2318607.068518042</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2692,17 +2532,11 @@
         <v>2318607.068518042</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2731,17 +2565,11 @@
         <v>2305262.091918042</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2770,17 +2598,11 @@
         <v>2296476.912018042</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2809,17 +2631,11 @@
         <v>2308976.912018042</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2848,17 +2664,11 @@
         <v>2289774.560818042</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2887,17 +2697,11 @@
         <v>2289924.560818042</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2929,14 +2733,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3007,14 +2799,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3046,14 +2832,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3085,14 +2865,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3124,14 +2898,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3160,17 +2928,11 @@
         <v>2227633.156818042</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3199,17 +2961,11 @@
         <v>2227753.156818042</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3238,17 +2994,11 @@
         <v>2227375.976218042</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3277,17 +3027,11 @@
         <v>2265475.976218042</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3319,14 +3063,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3358,14 +3096,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3397,14 +3129,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3436,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3475,14 +3195,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3514,14 +3228,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3553,14 +3261,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3592,14 +3294,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3631,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3670,14 +3360,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3709,14 +3393,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3748,14 +3426,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3787,14 +3459,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3826,14 +3492,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3865,14 +3525,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3904,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3943,14 +3591,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3982,14 +3624,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +3657,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4060,14 +3690,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4099,14 +3723,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4138,14 +3756,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4177,14 +3789,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4216,14 +3822,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4255,14 +3855,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4294,14 +3888,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4333,14 +3921,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4369,23 +3951,15 @@
         <v>3897505.725518043</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>1.186029514292354</v>
-      </c>
-      <c r="M102" t="n">
-        <v>1.023559598787031</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4410,7 +3984,7 @@
         <v>3876385.351418043</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4443,7 +4017,7 @@
         <v>3875395.428518042</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4476,7 +4050,7 @@
         <v>3875494.428518042</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4509,7 +4083,7 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4542,7 +4116,7 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4575,7 +4149,7 @@
         <v>3989050.966518043</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4608,7 +4182,7 @@
         <v>3985188.790518043</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4641,7 +4215,7 @@
         <v>3985188.790518043</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4674,7 +4248,7 @@
         <v>3985287.790518043</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4707,7 +4281,7 @@
         <v>3969594.960618043</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4740,7 +4314,7 @@
         <v>3969594.960618043</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4773,7 +4347,7 @@
         <v>3966294.960618043</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4806,7 +4380,7 @@
         <v>3966294.960618043</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4839,7 +4413,7 @@
         <v>4335481.670918043</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4872,7 +4446,7 @@
         <v>4949021.343418043</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4905,7 +4479,7 @@
         <v>4882368.048918043</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4938,7 +4512,7 @@
         <v>4882479.048918043</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4971,7 +4545,7 @@
         <v>4865386.362418043</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5004,7 +4578,7 @@
         <v>4823823.512718043</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5037,7 +4611,7 @@
         <v>5606769.714118043</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5070,7 +4644,7 @@
         <v>5379681.074318043</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5103,7 +4677,7 @@
         <v>5414309.648818043</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5136,7 +4710,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5169,7 +4743,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5202,7 +4776,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5235,7 +4809,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5268,7 +4842,7 @@
         <v>5059576.173918043</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5301,7 +4875,7 @@
         <v>5059686.173918043</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5334,7 +4908,7 @@
         <v>5059686.173918043</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5367,7 +4941,7 @@
         <v>5059686.173918043</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5400,7 +4974,7 @@
         <v>5037857.025112164</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5433,7 +5007,7 @@
         <v>5037857.025112164</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5466,7 +5040,7 @@
         <v>5037857.025112164</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5499,7 +5073,7 @@
         <v>5037857.025112164</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5532,7 +5106,7 @@
         <v>5016027.876312165</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5565,7 +5139,7 @@
         <v>5016137.876312165</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5598,7 +5172,7 @@
         <v>5015807.155312165</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5631,7 +5205,7 @@
         <v>5015917.155312165</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5664,7 +5238,7 @@
         <v>5013751.160012165</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5697,7 +5271,7 @@
         <v>5018051.160012165</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5730,7 +5304,7 @@
         <v>5017752.684312165</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6126,7 +5700,7 @@
         <v>5034781.316912165</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6456,7 +6030,7 @@
         <v>5141579.784218505</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -7710,7 +7284,7 @@
         <v>6300966.809118506</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7743,7 +7317,7 @@
         <v>6302166.809118506</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7776,7 +7350,7 @@
         <v>6302166.809118506</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7809,7 +7383,7 @@
         <v>6302166.809118506</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7842,7 +7416,7 @@
         <v>6264491.630618506</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7875,7 +7449,7 @@
         <v>6147434.826318506</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7908,7 +7482,7 @@
         <v>6051867.792218506</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7941,7 +7515,7 @@
         <v>6051977.792218506</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7974,7 +7548,7 @@
         <v>6219235.376818506</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -12077,6 +11651,6 @@
       <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest DVP.xlsx
+++ b/BackTest/2020-01-12 BackTest DVP.xlsx
@@ -484,14 +484,10 @@
         <v>-563933.8249465222</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.287</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-645693.3512465223</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.388</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.287</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-644564.3217465223</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.303</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.287</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -702,169 +682,169 @@
         <v>-645243.0973465223</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20823.7237</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-645243.0973465223</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>4.386</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="C11" t="n">
+        <v>4.386</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.386</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.386</v>
+      </c>
+      <c r="F11" t="n">
+        <v>120</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-645123.0973465223</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.386</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.408</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.408</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.386</v>
+      </c>
+      <c r="F12" t="n">
+        <v>311683.158</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-333439.9393465223</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3236</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-330203.9393465223</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.408</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="F10" t="n">
-        <v>20823.7237</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-645243.0973465223</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4.386</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.386</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.386</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.386</v>
-      </c>
-      <c r="F11" t="n">
-        <v>120</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-645123.0973465223</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.386</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.408</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4.408</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.386</v>
-      </c>
-      <c r="F12" t="n">
-        <v>311683.158</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-333439.9393465223</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3236</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-330203.9393465223</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.408</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -893,10 +873,14 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -930,10 +914,14 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.447</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -967,10 +955,14 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.447</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1009,7 +1001,9 @@
       <c r="I17" t="n">
         <v>4.448</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1043,10 +1037,14 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.448</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1080,10 +1078,14 @@
         <v>-159044.2350465223</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.448</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1117,10 +1119,14 @@
         <v>-278289.6919465223</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.361</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1154,10 +1160,14 @@
         <v>-326182.1772465223</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.354</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1191,10 +1201,14 @@
         <v>-220297.6625465223</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1228,10 +1242,14 @@
         <v>-120297.6625465223</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1265,10 +1283,14 @@
         <v>-47363.73204652227</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1307,7 +1329,9 @@
       <c r="I25" t="n">
         <v>4.428</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1341,10 +1365,14 @@
         <v>58263.20655347773</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1378,10 +1406,14 @@
         <v>771936.2756534776</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.619</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1415,10 +1447,14 @@
         <v>1811087.766553478</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1455,7 +1491,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1492,7 +1530,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1529,7 +1569,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1566,7 +1608,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1603,7 +1647,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1640,7 +1686,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1677,7 +1725,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1714,7 +1764,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1751,7 +1803,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1788,7 +1842,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,7 +1881,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1862,7 +1920,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1899,7 +1959,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1936,7 +1998,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1973,7 +2037,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,7 +2076,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2047,7 +2115,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2084,7 +2154,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2121,7 +2193,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2158,7 +2232,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2195,7 +2271,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2232,7 +2310,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.311</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,1568 +2346,1856 @@
         <v>2150454.474818042</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.903</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.903</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>15084.3575</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2165538.832318042</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.903</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.903</v>
+      </c>
+      <c r="F53" t="n">
+        <v>154362.8137</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2319901.646018042</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F54" t="n">
+        <v>14511.2295</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2319901.646018042</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F55" t="n">
+        <v>332726.5687</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2319901.646018042</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="F56" t="n">
+        <v>52658.7174</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2372560.363418042</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="F57" t="n">
+        <v>61189.0267</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2372560.363418042</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.935</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F58" t="n">
+        <v>53953.2949</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2318607.068518042</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F59" t="n">
+        <v>188207.5073</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2318607.068518042</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.831</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.831</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.831</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.831</v>
+      </c>
+      <c r="F60" t="n">
+        <v>13344.9766</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2305262.091918042</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8785.179899999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2296476.912018042</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4.828</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.915</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.915</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.828</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2308976.912018042</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="F63" t="n">
+        <v>19202.3512</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2289774.560818042</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="F64" t="n">
+        <v>150</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2289924.560818042</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="F65" t="n">
+        <v>102</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2289924.560818042</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.623</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.623</v>
+      </c>
+      <c r="F66" t="n">
+        <v>306</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2289618.560818042</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F67" t="n">
+        <v>36643.7001</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2326262.260918042</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F68" t="n">
+        <v>54026.5016</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2326262.260918042</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F69" t="n">
+        <v>30347.4166</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2295914.844318042</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F70" t="n">
+        <v>22760.5624</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2295914.844318042</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.636</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.636</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F71" t="n">
+        <v>68281.6875</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2227633.156818042</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4.879</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.879</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.879</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.879</v>
+      </c>
+      <c r="F72" t="n">
+        <v>120</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2227753.156818042</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4.807</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.807</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.807</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.807</v>
+      </c>
+      <c r="F73" t="n">
+        <v>377.1806</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2227375.976218042</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4.807</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.879</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4.879</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.807</v>
+      </c>
+      <c r="F74" t="n">
+        <v>38100</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2265475.976218042</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8573.3115</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2256902.664718042</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4.879</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.879</v>
+      </c>
+      <c r="F76" t="n">
+        <v>33420</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2290322.664718042</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F77" t="n">
+        <v>14262.5299</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2290322.664718042</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F78" t="n">
+        <v>20673.2067</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2290322.664718042</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9937.9143</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2290322.664718042</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F80" t="n">
+        <v>52658.7174</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2290322.664718042</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4.996</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.996</v>
+      </c>
+      <c r="F81" t="n">
+        <v>788230.1469000001</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3078552.811618042</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="F82" t="n">
+        <v>203.9635</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3078756.775118042</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9482.0098</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3078756.775118042</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C84" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F84" t="n">
+        <v>283505.044</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3078756.775118042</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1220</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3078756.775118042</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3740.2314</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3075016.543718042</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1254.7686</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3075016.543718042</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F88" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2875016.543718042</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4.901</v>
+      </c>
+      <c r="F89" t="n">
+        <v>261022.595</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3136039.138718043</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4.901</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.901</v>
+      </c>
+      <c r="F90" t="n">
+        <v>190100</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2945939.138718043</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9782.846</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2936156.292718043</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.078</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5.078</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.078</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5.078</v>
+      </c>
+      <c r="F92" t="n">
+        <v>99</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2936057.292718043</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.904</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.891</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.904</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.891</v>
+      </c>
+      <c r="F93" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2896057.292718043</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="F94" t="n">
+        <v>99</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2896156.292718043</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4.902</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.902</v>
+      </c>
+      <c r="F95" t="n">
+        <v>14509.7349</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2881646.557818043</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5.066</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5.066</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.066</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.066</v>
+      </c>
+      <c r="F96" t="n">
+        <v>909066.2132</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3790712.771018043</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5.082</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5.082</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.082</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5.082</v>
+      </c>
+      <c r="F97" t="n">
+        <v>99</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3790811.771018043</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F98" t="n">
+        <v>106936.618</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3897748.389018042</v>
+      </c>
+      <c r="H98" t="n">
         <v>2</v>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.311</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4.903</v>
-      </c>
-      <c r="D52" t="n">
-        <v>4.903</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F52" t="n">
-        <v>15084.3575</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2165538.832318042</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4.903</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="D53" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.903</v>
-      </c>
-      <c r="F53" t="n">
-        <v>154362.8137</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2319901.646018042</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="F54" t="n">
-        <v>14511.2295</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2319901.646018042</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="F55" t="n">
-        <v>332726.5687</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2319901.646018042</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="F56" t="n">
-        <v>52658.7174</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2372560.363418042</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="F57" t="n">
-        <v>61189.0267</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2372560.363418042</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4.935</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="F58" t="n">
-        <v>53953.2949</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2318607.068518042</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="F59" t="n">
-        <v>188207.5073</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2318607.068518042</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4.831</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.831</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4.831</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4.831</v>
-      </c>
-      <c r="F60" t="n">
-        <v>13344.9766</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2305262.091918042</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="F61" t="n">
-        <v>8785.179899999999</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2296476.912018042</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>4.828</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4.915</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4.915</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4.828</v>
-      </c>
-      <c r="F62" t="n">
-        <v>12500</v>
-      </c>
-      <c r="G62" t="n">
-        <v>2308976.912018042</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="F63" t="n">
-        <v>19202.3512</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2289774.560818042</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="D64" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="E64" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="F64" t="n">
-        <v>150</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2289924.560818042</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="D65" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="F65" t="n">
-        <v>102</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2289924.560818042</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4.623</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4.623</v>
-      </c>
-      <c r="F66" t="n">
-        <v>306</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2289618.560818042</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="D67" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="E67" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="F67" t="n">
-        <v>36643.7001</v>
-      </c>
-      <c r="G67" t="n">
-        <v>2326262.260918042</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="D68" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="E68" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="F68" t="n">
-        <v>54026.5016</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2326262.260918042</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C69" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D69" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E69" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F69" t="n">
-        <v>30347.4166</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2295914.844318042</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F70" t="n">
-        <v>22760.5624</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2295914.844318042</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>4.636</v>
-      </c>
-      <c r="C71" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="D71" t="n">
-        <v>4.636</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F71" t="n">
-        <v>68281.6875</v>
-      </c>
-      <c r="G71" t="n">
-        <v>2227633.156818042</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4.879</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4.879</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4.879</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4.879</v>
-      </c>
-      <c r="F72" t="n">
-        <v>120</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2227753.156818042</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>4.807</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4.807</v>
-      </c>
-      <c r="D73" t="n">
-        <v>4.807</v>
-      </c>
-      <c r="E73" t="n">
-        <v>4.807</v>
-      </c>
-      <c r="F73" t="n">
-        <v>377.1806</v>
-      </c>
-      <c r="G73" t="n">
-        <v>2227375.976218042</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>4.807</v>
-      </c>
-      <c r="C74" t="n">
-        <v>4.879</v>
-      </c>
-      <c r="D74" t="n">
-        <v>4.879</v>
-      </c>
-      <c r="E74" t="n">
-        <v>4.807</v>
-      </c>
-      <c r="F74" t="n">
-        <v>38100</v>
-      </c>
-      <c r="G74" t="n">
-        <v>2265475.976218042</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="D75" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="E75" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="F75" t="n">
-        <v>8573.3115</v>
-      </c>
-      <c r="G75" t="n">
-        <v>2256902.664718042</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>4.879</v>
-      </c>
-      <c r="C76" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D76" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E76" t="n">
-        <v>4.879</v>
-      </c>
-      <c r="F76" t="n">
-        <v>33420</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2290322.664718042</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="C77" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D77" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E77" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F77" t="n">
-        <v>14262.5299</v>
-      </c>
-      <c r="G77" t="n">
-        <v>2290322.664718042</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="C78" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D78" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E78" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F78" t="n">
-        <v>20673.2067</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2290322.664718042</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="C79" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D79" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9937.9143</v>
-      </c>
-      <c r="G79" t="n">
-        <v>2290322.664718042</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="C80" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D80" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E80" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F80" t="n">
-        <v>52658.7174</v>
-      </c>
-      <c r="G80" t="n">
-        <v>2290322.664718042</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>4.996</v>
-      </c>
-      <c r="C81" t="n">
-        <v>5</v>
-      </c>
-      <c r="D81" t="n">
-        <v>5</v>
-      </c>
-      <c r="E81" t="n">
-        <v>4.996</v>
-      </c>
-      <c r="F81" t="n">
-        <v>788230.1469000001</v>
-      </c>
-      <c r="G81" t="n">
-        <v>3078552.811618042</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="C82" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="D82" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="E82" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="F82" t="n">
-        <v>203.9635</v>
-      </c>
-      <c r="G82" t="n">
-        <v>3078756.775118042</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="C83" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="D83" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="E83" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="F83" t="n">
-        <v>9482.0098</v>
-      </c>
-      <c r="G83" t="n">
-        <v>3078756.775118042</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="C84" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="D84" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="E84" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="F84" t="n">
-        <v>283505.044</v>
-      </c>
-      <c r="G84" t="n">
-        <v>3078756.775118042</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="C85" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="D85" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="E85" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1220</v>
-      </c>
-      <c r="G85" t="n">
-        <v>3078756.775118042</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="C86" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="D86" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E86" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3740.2314</v>
-      </c>
-      <c r="G86" t="n">
-        <v>3075016.543718042</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="C87" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="D87" t="n">
-        <v>5.127</v>
-      </c>
-      <c r="E87" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1254.7686</v>
-      </c>
-      <c r="G87" t="n">
-        <v>3075016.543718042</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="C88" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D88" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="E88" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F88" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2875016.543718042</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="C89" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="D89" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E89" t="n">
-        <v>4.901</v>
-      </c>
-      <c r="F89" t="n">
-        <v>261022.595</v>
-      </c>
-      <c r="G89" t="n">
-        <v>3136039.138718043</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>4.901</v>
-      </c>
-      <c r="C90" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D90" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E90" t="n">
-        <v>4.901</v>
-      </c>
-      <c r="F90" t="n">
-        <v>190100</v>
-      </c>
-      <c r="G90" t="n">
-        <v>2945939.138718043</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C91" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D91" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E91" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F91" t="n">
-        <v>9782.846</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2936156.292718043</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5.078</v>
-      </c>
-      <c r="C92" t="n">
-        <v>5.078</v>
-      </c>
-      <c r="D92" t="n">
-        <v>5.078</v>
-      </c>
-      <c r="E92" t="n">
-        <v>5.078</v>
-      </c>
-      <c r="F92" t="n">
-        <v>99</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2936057.292718043</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4.904</v>
-      </c>
-      <c r="C93" t="n">
-        <v>4.891</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4.904</v>
-      </c>
-      <c r="E93" t="n">
-        <v>4.891</v>
-      </c>
-      <c r="F93" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G93" t="n">
-        <v>2896057.292718043</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>5.069</v>
-      </c>
-      <c r="C94" t="n">
-        <v>5.069</v>
-      </c>
-      <c r="D94" t="n">
-        <v>5.069</v>
-      </c>
-      <c r="E94" t="n">
-        <v>5.069</v>
-      </c>
-      <c r="F94" t="n">
-        <v>99</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2896156.292718043</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="C95" t="n">
-        <v>4.902</v>
-      </c>
-      <c r="D95" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="E95" t="n">
-        <v>4.902</v>
-      </c>
-      <c r="F95" t="n">
-        <v>14509.7349</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2881646.557818043</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>5.066</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.066</v>
-      </c>
-      <c r="D96" t="n">
-        <v>5.066</v>
-      </c>
-      <c r="E96" t="n">
-        <v>5.066</v>
-      </c>
-      <c r="F96" t="n">
-        <v>909066.2132</v>
-      </c>
-      <c r="G96" t="n">
-        <v>3790712.771018043</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>5.082</v>
-      </c>
-      <c r="C97" t="n">
-        <v>5.082</v>
-      </c>
-      <c r="D97" t="n">
-        <v>5.082</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5.082</v>
-      </c>
-      <c r="F97" t="n">
-        <v>99</v>
-      </c>
-      <c r="G97" t="n">
-        <v>3790811.771018043</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C98" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="D98" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F98" t="n">
-        <v>106936.618</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3897748.389018042</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>1.182659475759685</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.028224865873571</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3951,7 +4319,7 @@
         <v>3897505.725518043</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3984,7 +4352,7 @@
         <v>3876385.351418043</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4017,7 +4385,7 @@
         <v>3875395.428518042</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4050,7 +4418,7 @@
         <v>3875494.428518042</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4083,7 +4451,7 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4116,7 +4484,7 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4149,7 +4517,7 @@
         <v>3989050.966518043</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4182,7 +4550,7 @@
         <v>3985188.790518043</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4215,7 +4583,7 @@
         <v>3985188.790518043</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4281,7 +4649,7 @@
         <v>3969594.960618043</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4314,7 +4682,7 @@
         <v>3969594.960618043</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4347,7 +4715,7 @@
         <v>3966294.960618043</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest DVP.xlsx
+++ b/BackTest/2020-01-12 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:L335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>106001.6444</v>
       </c>
       <c r="G2" t="n">
-        <v>-1012645.482246522</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>448711.6573</v>
       </c>
       <c r="G3" t="n">
-        <v>-563933.8249465222</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,21 @@
         <v>81759.5263</v>
       </c>
       <c r="G4" t="n">
-        <v>-645693.3512465223</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.388</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +539,21 @@
         <v>1129.0295</v>
       </c>
       <c r="G5" t="n">
-        <v>-644564.3217465223</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4.303</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,21 @@
         <v>8532.298500000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-636032.0232465223</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +611,21 @@
         <v>9942.733700000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-636032.0232465223</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +647,21 @@
         <v>17615.9164</v>
       </c>
       <c r="G8" t="n">
-        <v>-618416.1068465223</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +683,21 @@
         <v>26826.9905</v>
       </c>
       <c r="G9" t="n">
-        <v>-645243.0973465223</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4.386</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,22 +719,21 @@
         <v>20823.7237</v>
       </c>
       <c r="G10" t="n">
-        <v>-645243.0973465223</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
         <v>4.311</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -749,26 +755,21 @@
         <v>120</v>
       </c>
       <c r="G11" t="n">
-        <v>-645123.0973465223</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
         <v>4.311</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -790,24 +791,21 @@
         <v>311683.158</v>
       </c>
       <c r="G12" t="n">
-        <v>-333439.9393465223</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4.386</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -829,26 +827,19 @@
         <v>3236</v>
       </c>
       <c r="G13" t="n">
-        <v>-330203.9393465223</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.408</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -870,26 +861,21 @@
         <v>60000</v>
       </c>
       <c r="G14" t="n">
-        <v>-270203.9393465223</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
         <v>4.44</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -911,26 +897,19 @@
         <v>30000</v>
       </c>
       <c r="G15" t="n">
-        <v>-270203.9393465223</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.447</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,26 +931,19 @@
         <v>116771.0296</v>
       </c>
       <c r="G16" t="n">
-        <v>-153432.9097465223</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.447</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -993,26 +965,19 @@
         <v>1284.4741</v>
       </c>
       <c r="G17" t="n">
-        <v>-153432.9097465223</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.448</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,26 +999,19 @@
         <v>16688.2245</v>
       </c>
       <c r="G18" t="n">
-        <v>-153432.9097465223</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.448</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1075,26 +1033,19 @@
         <v>5611.3253</v>
       </c>
       <c r="G19" t="n">
-        <v>-159044.2350465223</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.448</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1116,26 +1067,19 @@
         <v>119245.4569</v>
       </c>
       <c r="G20" t="n">
-        <v>-278289.6919465223</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.361</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1157,26 +1101,19 @@
         <v>47892.4853</v>
       </c>
       <c r="G21" t="n">
-        <v>-326182.1772465223</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.354</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1198,26 +1135,19 @@
         <v>105884.5147</v>
       </c>
       <c r="G22" t="n">
-        <v>-220297.6625465223</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1239,26 +1169,19 @@
         <v>100000</v>
       </c>
       <c r="G23" t="n">
-        <v>-120297.6625465223</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1280,26 +1203,19 @@
         <v>72933.9305</v>
       </c>
       <c r="G24" t="n">
-        <v>-47363.73204652227</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1321,26 +1237,19 @@
         <v>39697.5105</v>
       </c>
       <c r="G25" t="n">
-        <v>-7666.221546522276</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.428</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1362,26 +1271,19 @@
         <v>65929.4281</v>
       </c>
       <c r="G26" t="n">
-        <v>58263.20655347773</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1403,26 +1305,19 @@
         <v>713673.0691</v>
       </c>
       <c r="G27" t="n">
-        <v>771936.2756534776</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.619</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1444,26 +1339,19 @@
         <v>1039151.4909</v>
       </c>
       <c r="G28" t="n">
-        <v>1811087.766553478</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1485,24 +1373,19 @@
         <v>937786.7579</v>
       </c>
       <c r="G29" t="n">
-        <v>2748874.524453477</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1524,24 +1407,19 @@
         <v>1962769.9061</v>
       </c>
       <c r="G30" t="n">
-        <v>2748874.524453477</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1563,24 +1441,19 @@
         <v>47902.8807</v>
       </c>
       <c r="G31" t="n">
-        <v>2700971.643753477</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1602,24 +1475,19 @@
         <v>38986.2389</v>
       </c>
       <c r="G32" t="n">
-        <v>2661985.404853477</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1641,24 +1509,19 @@
         <v>748497.4527</v>
       </c>
       <c r="G33" t="n">
-        <v>1913487.952153477</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1680,24 +1543,19 @@
         <v>104</v>
       </c>
       <c r="G34" t="n">
-        <v>1913591.952153477</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1719,24 +1577,17 @@
         <v>72337.1176</v>
       </c>
       <c r="G35" t="n">
-        <v>1985929.069753477</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1758,24 +1609,15 @@
         <v>105</v>
       </c>
       <c r="G36" t="n">
-        <v>1985824.069753477</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1797,24 +1639,15 @@
         <v>105</v>
       </c>
       <c r="G37" t="n">
-        <v>1985929.069753477</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1836,24 +1669,15 @@
         <v>161434.0442</v>
       </c>
       <c r="G38" t="n">
-        <v>1824495.025553477</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1875,24 +1699,15 @@
         <v>351280.2345</v>
       </c>
       <c r="G39" t="n">
-        <v>2175775.260053477</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1914,24 +1729,15 @@
         <v>185104.3921</v>
       </c>
       <c r="G40" t="n">
-        <v>2175775.260053477</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1953,24 +1759,15 @@
         <v>3657.36797274276</v>
       </c>
       <c r="G41" t="n">
-        <v>2172117.892080734</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1992,24 +1789,15 @@
         <v>2743.185689948893</v>
       </c>
       <c r="G42" t="n">
-        <v>2172117.892080734</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2031,24 +1819,15 @@
         <v>93496.49603730834</v>
       </c>
       <c r="G43" t="n">
-        <v>2265614.388118043</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2070,24 +1849,15 @@
         <v>88884.5555</v>
       </c>
       <c r="G44" t="n">
-        <v>2354498.943618042</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2109,24 +1879,15 @@
         <v>168885.2784</v>
       </c>
       <c r="G45" t="n">
-        <v>2354498.943618042</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2148,24 +1909,15 @@
         <v>25326.8204</v>
       </c>
       <c r="G46" t="n">
-        <v>2379825.764018042</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2187,24 +1939,15 @@
         <v>20770.9166</v>
       </c>
       <c r="G47" t="n">
-        <v>2359054.847418042</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2226,24 +1969,15 @@
         <v>134824.0946</v>
       </c>
       <c r="G48" t="n">
-        <v>2224230.752818042</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2265,24 +1999,15 @@
         <v>118338.766</v>
       </c>
       <c r="G49" t="n">
-        <v>2105891.986818043</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2304,24 +2029,15 @@
         <v>44961.9123</v>
       </c>
       <c r="G50" t="n">
-        <v>2150853.899118043</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2343,24 +2059,15 @@
         <v>399.4243</v>
       </c>
       <c r="G51" t="n">
-        <v>2150454.474818042</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2382,24 +2089,15 @@
         <v>15084.3575</v>
       </c>
       <c r="G52" t="n">
-        <v>2165538.832318042</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2421,24 +2119,15 @@
         <v>154362.8137</v>
       </c>
       <c r="G53" t="n">
-        <v>2319901.646018042</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2460,24 +2149,15 @@
         <v>14511.2295</v>
       </c>
       <c r="G54" t="n">
-        <v>2319901.646018042</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2499,24 +2179,15 @@
         <v>332726.5687</v>
       </c>
       <c r="G55" t="n">
-        <v>2319901.646018042</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2538,24 +2209,15 @@
         <v>52658.7174</v>
       </c>
       <c r="G56" t="n">
-        <v>2372560.363418042</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2577,24 +2239,15 @@
         <v>61189.0267</v>
       </c>
       <c r="G57" t="n">
-        <v>2372560.363418042</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2616,24 +2269,15 @@
         <v>53953.2949</v>
       </c>
       <c r="G58" t="n">
-        <v>2318607.068518042</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2655,24 +2299,15 @@
         <v>188207.5073</v>
       </c>
       <c r="G59" t="n">
-        <v>2318607.068518042</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2694,24 +2329,15 @@
         <v>13344.9766</v>
       </c>
       <c r="G60" t="n">
-        <v>2305262.091918042</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2733,24 +2359,15 @@
         <v>8785.179899999999</v>
       </c>
       <c r="G61" t="n">
-        <v>2296476.912018042</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2772,24 +2389,15 @@
         <v>12500</v>
       </c>
       <c r="G62" t="n">
-        <v>2308976.912018042</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2811,24 +2419,15 @@
         <v>19202.3512</v>
       </c>
       <c r="G63" t="n">
-        <v>2289774.560818042</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2850,24 +2449,15 @@
         <v>150</v>
       </c>
       <c r="G64" t="n">
-        <v>2289924.560818042</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2889,24 +2479,15 @@
         <v>102</v>
       </c>
       <c r="G65" t="n">
-        <v>2289924.560818042</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2928,24 +2509,15 @@
         <v>306</v>
       </c>
       <c r="G66" t="n">
-        <v>2289618.560818042</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2967,24 +2539,15 @@
         <v>36643.7001</v>
       </c>
       <c r="G67" t="n">
-        <v>2326262.260918042</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3006,24 +2569,15 @@
         <v>54026.5016</v>
       </c>
       <c r="G68" t="n">
-        <v>2326262.260918042</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3045,24 +2599,15 @@
         <v>30347.4166</v>
       </c>
       <c r="G69" t="n">
-        <v>2295914.844318042</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3084,24 +2629,15 @@
         <v>22760.5624</v>
       </c>
       <c r="G70" t="n">
-        <v>2295914.844318042</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3123,24 +2659,15 @@
         <v>68281.6875</v>
       </c>
       <c r="G71" t="n">
-        <v>2227633.156818042</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3162,24 +2689,15 @@
         <v>120</v>
       </c>
       <c r="G72" t="n">
-        <v>2227753.156818042</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3201,24 +2719,15 @@
         <v>377.1806</v>
       </c>
       <c r="G73" t="n">
-        <v>2227375.976218042</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3240,24 +2749,15 @@
         <v>38100</v>
       </c>
       <c r="G74" t="n">
-        <v>2265475.976218042</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3279,24 +2779,15 @@
         <v>8573.3115</v>
       </c>
       <c r="G75" t="n">
-        <v>2256902.664718042</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3318,24 +2809,15 @@
         <v>33420</v>
       </c>
       <c r="G76" t="n">
-        <v>2290322.664718042</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3357,24 +2839,15 @@
         <v>14262.5299</v>
       </c>
       <c r="G77" t="n">
-        <v>2290322.664718042</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3396,24 +2869,15 @@
         <v>20673.2067</v>
       </c>
       <c r="G78" t="n">
-        <v>2290322.664718042</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3435,24 +2899,15 @@
         <v>9937.9143</v>
       </c>
       <c r="G79" t="n">
-        <v>2290322.664718042</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3474,24 +2929,15 @@
         <v>52658.7174</v>
       </c>
       <c r="G80" t="n">
-        <v>2290322.664718042</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3513,24 +2959,15 @@
         <v>788230.1469000001</v>
       </c>
       <c r="G81" t="n">
-        <v>3078552.811618042</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3552,24 +2989,15 @@
         <v>203.9635</v>
       </c>
       <c r="G82" t="n">
-        <v>3078756.775118042</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3591,24 +3019,15 @@
         <v>9482.0098</v>
       </c>
       <c r="G83" t="n">
-        <v>3078756.775118042</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3630,24 +3049,15 @@
         <v>283505.044</v>
       </c>
       <c r="G84" t="n">
-        <v>3078756.775118042</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3669,24 +3079,15 @@
         <v>1220</v>
       </c>
       <c r="G85" t="n">
-        <v>3078756.775118042</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3708,24 +3109,15 @@
         <v>3740.2314</v>
       </c>
       <c r="G86" t="n">
-        <v>3075016.543718042</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3747,24 +3139,15 @@
         <v>1254.7686</v>
       </c>
       <c r="G87" t="n">
-        <v>3075016.543718042</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3786,24 +3169,15 @@
         <v>200000</v>
       </c>
       <c r="G88" t="n">
-        <v>2875016.543718042</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3825,24 +3199,15 @@
         <v>261022.595</v>
       </c>
       <c r="G89" t="n">
-        <v>3136039.138718043</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3864,24 +3229,15 @@
         <v>190100</v>
       </c>
       <c r="G90" t="n">
-        <v>2945939.138718043</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3903,24 +3259,15 @@
         <v>9782.846</v>
       </c>
       <c r="G91" t="n">
-        <v>2936156.292718043</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3942,24 +3289,15 @@
         <v>99</v>
       </c>
       <c r="G92" t="n">
-        <v>2936057.292718043</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3981,24 +3319,15 @@
         <v>40000</v>
       </c>
       <c r="G93" t="n">
-        <v>2896057.292718043</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4020,24 +3349,15 @@
         <v>99</v>
       </c>
       <c r="G94" t="n">
-        <v>2896156.292718043</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4059,24 +3379,15 @@
         <v>14509.7349</v>
       </c>
       <c r="G95" t="n">
-        <v>2881646.557818043</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4098,24 +3409,15 @@
         <v>909066.2132</v>
       </c>
       <c r="G96" t="n">
-        <v>3790712.771018043</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4137,24 +3439,15 @@
         <v>99</v>
       </c>
       <c r="G97" t="n">
-        <v>3790811.771018043</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4176,26 +3469,15 @@
         <v>106936.618</v>
       </c>
       <c r="G98" t="n">
-        <v>3897748.389018042</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>4.311</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1.182659475759685</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.028224865873571</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4217,18 +3499,15 @@
         <v>89208.12360000001</v>
       </c>
       <c r="G99" t="n">
-        <v>3897748.389018042</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4250,18 +3529,15 @@
         <v>12969.5168</v>
       </c>
       <c r="G100" t="n">
-        <v>3897748.389018042</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4283,18 +3559,15 @@
         <v>99</v>
       </c>
       <c r="G101" t="n">
-        <v>3897847.389018042</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4316,18 +3589,15 @@
         <v>341.6635</v>
       </c>
       <c r="G102" t="n">
-        <v>3897505.725518043</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4349,18 +3619,15 @@
         <v>21120.3741</v>
       </c>
       <c r="G103" t="n">
-        <v>3876385.351418043</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4382,18 +3649,15 @@
         <v>989.9229</v>
       </c>
       <c r="G104" t="n">
-        <v>3875395.428518042</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4415,18 +3679,15 @@
         <v>99</v>
       </c>
       <c r="G105" t="n">
-        <v>3875494.428518042</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4448,18 +3709,15 @@
         <v>117834.4522</v>
       </c>
       <c r="G106" t="n">
-        <v>3993328.880718043</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4481,18 +3739,15 @@
         <v>26752.2945</v>
       </c>
       <c r="G107" t="n">
-        <v>3993328.880718043</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4514,18 +3769,15 @@
         <v>4277.9142</v>
       </c>
       <c r="G108" t="n">
-        <v>3989050.966518043</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4547,18 +3799,15 @@
         <v>3862.176</v>
       </c>
       <c r="G109" t="n">
-        <v>3985188.790518043</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4580,18 +3829,15 @@
         <v>53148.455</v>
       </c>
       <c r="G110" t="n">
-        <v>3985188.790518043</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4613,18 +3859,15 @@
         <v>99</v>
       </c>
       <c r="G111" t="n">
-        <v>3985287.790518043</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4646,18 +3889,15 @@
         <v>15692.8299</v>
       </c>
       <c r="G112" t="n">
-        <v>3969594.960618043</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4679,18 +3919,15 @@
         <v>7172.0558</v>
       </c>
       <c r="G113" t="n">
-        <v>3969594.960618043</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4712,18 +3949,15 @@
         <v>3300</v>
       </c>
       <c r="G114" t="n">
-        <v>3966294.960618043</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4745,18 +3979,15 @@
         <v>12000</v>
       </c>
       <c r="G115" t="n">
-        <v>3966294.960618043</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4778,18 +4009,15 @@
         <v>369186.7103</v>
       </c>
       <c r="G116" t="n">
-        <v>4335481.670918043</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4811,18 +4039,15 @@
         <v>613539.6725</v>
       </c>
       <c r="G117" t="n">
-        <v>4949021.343418043</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4844,18 +4069,15 @@
         <v>66653.2945</v>
       </c>
       <c r="G118" t="n">
-        <v>4882368.048918043</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4877,18 +4099,15 @@
         <v>111</v>
       </c>
       <c r="G119" t="n">
-        <v>4882479.048918043</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4910,18 +4129,15 @@
         <v>17092.6865</v>
       </c>
       <c r="G120" t="n">
-        <v>4865386.362418043</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4943,18 +4159,15 @@
         <v>41562.8497</v>
       </c>
       <c r="G121" t="n">
-        <v>4823823.512718043</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4976,18 +4189,15 @@
         <v>782946.2014</v>
       </c>
       <c r="G122" t="n">
-        <v>5606769.714118043</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5009,18 +4219,15 @@
         <v>227088.6398</v>
       </c>
       <c r="G123" t="n">
-        <v>5379681.074318043</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5042,18 +4249,15 @@
         <v>34628.5745</v>
       </c>
       <c r="G124" t="n">
-        <v>5414309.648818043</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5075,18 +4279,15 @@
         <v>13977.3082</v>
       </c>
       <c r="G125" t="n">
-        <v>5428286.957018043</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5108,18 +4309,15 @@
         <v>4700.2129</v>
       </c>
       <c r="G126" t="n">
-        <v>5428286.957018043</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5141,18 +4339,15 @@
         <v>600</v>
       </c>
       <c r="G127" t="n">
-        <v>5428286.957018043</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5174,18 +4369,15 @@
         <v>164419.7837</v>
       </c>
       <c r="G128" t="n">
-        <v>5428286.957018043</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5207,18 +4399,15 @@
         <v>368710.7831</v>
       </c>
       <c r="G129" t="n">
-        <v>5059576.173918043</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5240,18 +4429,15 @@
         <v>110</v>
       </c>
       <c r="G130" t="n">
-        <v>5059686.173918043</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5273,18 +4459,15 @@
         <v>4598.8507</v>
       </c>
       <c r="G131" t="n">
-        <v>5059686.173918043</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5306,18 +4489,15 @@
         <v>2015.5712</v>
       </c>
       <c r="G132" t="n">
-        <v>5059686.173918043</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5339,18 +4519,15 @@
         <v>21829.14880587875</v>
       </c>
       <c r="G133" t="n">
-        <v>5037857.025112164</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5372,18 +4549,15 @@
         <v>36487.5645</v>
       </c>
       <c r="G134" t="n">
-        <v>5037857.025112164</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5405,18 +4579,15 @@
         <v>936.2183</v>
       </c>
       <c r="G135" t="n">
-        <v>5037857.025112164</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5438,18 +4609,15 @@
         <v>124726.9145941212</v>
       </c>
       <c r="G136" t="n">
-        <v>5037857.025112164</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5471,18 +4639,15 @@
         <v>21829.1488</v>
       </c>
       <c r="G137" t="n">
-        <v>5016027.876312165</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5504,18 +4669,15 @@
         <v>110</v>
       </c>
       <c r="G138" t="n">
-        <v>5016137.876312165</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5537,18 +4699,15 @@
         <v>330.721</v>
       </c>
       <c r="G139" t="n">
-        <v>5015807.155312165</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5570,18 +4729,15 @@
         <v>110</v>
       </c>
       <c r="G140" t="n">
-        <v>5015917.155312165</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5603,18 +4759,15 @@
         <v>2165.9953</v>
       </c>
       <c r="G141" t="n">
-        <v>5013751.160012165</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5636,18 +4789,15 @@
         <v>4300</v>
       </c>
       <c r="G142" t="n">
-        <v>5018051.160012165</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5669,18 +4819,15 @@
         <v>298.4757</v>
       </c>
       <c r="G143" t="n">
-        <v>5017752.684312165</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5702,18 +4849,15 @@
         <v>110</v>
       </c>
       <c r="G144" t="n">
-        <v>5017862.684312165</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5735,18 +4879,15 @@
         <v>7724.9822</v>
       </c>
       <c r="G145" t="n">
-        <v>5010137.702112164</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5768,18 +4909,15 @@
         <v>58034.3041</v>
       </c>
       <c r="G146" t="n">
-        <v>5068172.006212165</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5801,18 +4939,15 @@
         <v>944.0779</v>
       </c>
       <c r="G147" t="n">
-        <v>5067227.928312165</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5834,18 +4969,15 @@
         <v>110</v>
       </c>
       <c r="G148" t="n">
-        <v>5067337.928312165</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5867,18 +4999,15 @@
         <v>309.6844</v>
       </c>
       <c r="G149" t="n">
-        <v>5067028.243912165</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5900,18 +5029,15 @@
         <v>110</v>
       </c>
       <c r="G150" t="n">
-        <v>5067138.243912165</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5933,18 +5059,15 @@
         <v>21248.0319</v>
       </c>
       <c r="G151" t="n">
-        <v>5067138.243912165</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5966,18 +5089,15 @@
         <v>294.2002</v>
       </c>
       <c r="G152" t="n">
-        <v>5066844.043712165</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5999,18 +5119,15 @@
         <v>326.1076</v>
       </c>
       <c r="G153" t="n">
-        <v>5067170.151312165</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6032,18 +5149,15 @@
         <v>1441.9814</v>
       </c>
       <c r="G154" t="n">
-        <v>5067170.151312165</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6065,18 +5179,15 @@
         <v>32388.8344</v>
       </c>
       <c r="G155" t="n">
-        <v>5034781.316912165</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6098,18 +5209,15 @@
         <v>34741.6565</v>
       </c>
       <c r="G156" t="n">
-        <v>5000039.660412165</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6131,18 +5239,15 @@
         <v>402.3071</v>
       </c>
       <c r="G157" t="n">
-        <v>5000441.967512165</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6164,18 +5269,15 @@
         <v>64987.6111</v>
       </c>
       <c r="G158" t="n">
-        <v>4935454.356412165</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6197,18 +5299,15 @@
         <v>61520.92920633947</v>
       </c>
       <c r="G159" t="n">
-        <v>4996975.285618505</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6230,18 +5329,15 @@
         <v>323.6402</v>
       </c>
       <c r="G160" t="n">
-        <v>4996651.645418504</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6263,18 +5359,15 @@
         <v>406.1939</v>
       </c>
       <c r="G161" t="n">
-        <v>4997057.839318505</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6296,18 +5389,15 @@
         <v>1507.4582</v>
       </c>
       <c r="G162" t="n">
-        <v>4995550.381118504</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6329,18 +5419,15 @@
         <v>46078.0341</v>
       </c>
       <c r="G163" t="n">
-        <v>4995550.381118504</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6362,18 +5449,15 @@
         <v>162114.4016</v>
       </c>
       <c r="G164" t="n">
-        <v>5157664.782718505</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6395,18 +5479,15 @@
         <v>16084.9985</v>
       </c>
       <c r="G165" t="n">
-        <v>5141579.784218505</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6428,18 +5509,15 @@
         <v>40792.8183</v>
       </c>
       <c r="G166" t="n">
-        <v>5182372.602518505</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6461,18 +5539,15 @@
         <v>16475.9461</v>
       </c>
       <c r="G167" t="n">
-        <v>5182372.602518505</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6494,18 +5569,15 @@
         <v>9764.002</v>
       </c>
       <c r="G168" t="n">
-        <v>5182372.602518505</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6527,18 +5599,15 @@
         <v>600</v>
       </c>
       <c r="G169" t="n">
-        <v>5182972.602518505</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6560,18 +5629,15 @@
         <v>76807.96610000001</v>
       </c>
       <c r="G170" t="n">
-        <v>5106164.636418506</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6593,18 +5659,15 @@
         <v>39462.6335</v>
       </c>
       <c r="G171" t="n">
-        <v>5106164.636418506</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6626,18 +5689,15 @@
         <v>13336.1281</v>
       </c>
       <c r="G172" t="n">
-        <v>5119500.764518506</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6659,18 +5719,15 @@
         <v>2634.9434</v>
       </c>
       <c r="G173" t="n">
-        <v>5116865.821118506</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6692,18 +5749,15 @@
         <v>823.7201</v>
       </c>
       <c r="G174" t="n">
-        <v>5116042.101018506</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6725,18 +5779,15 @@
         <v>8940.2819</v>
       </c>
       <c r="G175" t="n">
-        <v>5107101.819118506</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6758,18 +5809,15 @@
         <v>47880.9667</v>
       </c>
       <c r="G176" t="n">
-        <v>5154982.785818506</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6791,18 +5839,15 @@
         <v>603.7519</v>
       </c>
       <c r="G177" t="n">
-        <v>5154379.033918506</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6824,18 +5869,15 @@
         <v>62414.6731</v>
       </c>
       <c r="G178" t="n">
-        <v>5091964.360818506</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6857,18 +5899,15 @@
         <v>230157.084</v>
       </c>
       <c r="G179" t="n">
-        <v>5322121.444818506</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6890,18 +5929,15 @@
         <v>66022.21649999999</v>
       </c>
       <c r="G180" t="n">
-        <v>5388143.661318506</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6923,18 +5959,15 @@
         <v>22054.8951</v>
       </c>
       <c r="G181" t="n">
-        <v>5410198.556418506</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6956,18 +5989,15 @@
         <v>10000</v>
       </c>
       <c r="G182" t="n">
-        <v>5420198.556418506</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6989,18 +6019,15 @@
         <v>9793.75</v>
       </c>
       <c r="G183" t="n">
-        <v>5410404.806418506</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7022,18 +6049,15 @@
         <v>14346.7169</v>
       </c>
       <c r="G184" t="n">
-        <v>5424751.523318507</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7055,18 +6079,15 @@
         <v>384.7524</v>
       </c>
       <c r="G185" t="n">
-        <v>5425136.275718506</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7088,18 +6109,15 @@
         <v>1928</v>
       </c>
       <c r="G186" t="n">
-        <v>5425136.275718506</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7121,18 +6139,15 @@
         <v>1320.2522</v>
       </c>
       <c r="G187" t="n">
-        <v>5423816.023518506</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,18 +6169,15 @@
         <v>571326.9356</v>
       </c>
       <c r="G188" t="n">
-        <v>4852489.087918507</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7187,18 +6199,15 @@
         <v>68773.06020000001</v>
       </c>
       <c r="G189" t="n">
-        <v>4921262.148118507</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7220,18 +6229,15 @@
         <v>200</v>
       </c>
       <c r="G190" t="n">
-        <v>4921462.148118507</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7253,18 +6259,15 @@
         <v>240</v>
       </c>
       <c r="G191" t="n">
-        <v>4921222.148118507</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7286,18 +6289,15 @@
         <v>143277.0652</v>
       </c>
       <c r="G192" t="n">
-        <v>5064499.213318507</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7319,18 +6319,15 @@
         <v>9048.9737</v>
       </c>
       <c r="G193" t="n">
-        <v>5073548.187018507</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7352,18 +6349,15 @@
         <v>41672.4677</v>
       </c>
       <c r="G194" t="n">
-        <v>5031875.719318507</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7385,18 +6379,15 @@
         <v>21968.9145</v>
       </c>
       <c r="G195" t="n">
-        <v>5053844.633818507</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7418,18 +6409,15 @@
         <v>203532.6964</v>
       </c>
       <c r="G196" t="n">
-        <v>5257377.330218507</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7451,18 +6439,15 @@
         <v>288082.6134</v>
       </c>
       <c r="G197" t="n">
-        <v>5257377.330218507</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7484,18 +6469,15 @@
         <v>22932.964</v>
       </c>
       <c r="G198" t="n">
-        <v>5257377.330218507</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7517,18 +6499,15 @@
         <v>2498</v>
       </c>
       <c r="G199" t="n">
-        <v>5259875.330218507</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7550,18 +6529,15 @@
         <v>1300</v>
       </c>
       <c r="G200" t="n">
-        <v>5258575.330218507</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7583,18 +6559,15 @@
         <v>1290864.9573</v>
       </c>
       <c r="G201" t="n">
-        <v>6549440.287518507</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7616,18 +6589,15 @@
         <v>560</v>
       </c>
       <c r="G202" t="n">
-        <v>6548880.287518507</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7649,18 +6619,15 @@
         <v>247913.4784</v>
       </c>
       <c r="G203" t="n">
-        <v>6300966.809118506</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7682,18 +6649,15 @@
         <v>1200</v>
       </c>
       <c r="G204" t="n">
-        <v>6302166.809118506</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7715,18 +6679,15 @@
         <v>28889.9986</v>
       </c>
       <c r="G205" t="n">
-        <v>6302166.809118506</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7748,18 +6709,15 @@
         <v>235.919</v>
       </c>
       <c r="G206" t="n">
-        <v>6302166.809118506</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7781,18 +6739,15 @@
         <v>37675.1785</v>
       </c>
       <c r="G207" t="n">
-        <v>6264491.630618506</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7814,18 +6769,15 @@
         <v>117056.8043</v>
       </c>
       <c r="G208" t="n">
-        <v>6147434.826318506</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7847,18 +6799,15 @@
         <v>95567.0341</v>
       </c>
       <c r="G209" t="n">
-        <v>6051867.792218506</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7880,18 +6829,15 @@
         <v>110</v>
       </c>
       <c r="G210" t="n">
-        <v>6051977.792218506</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7913,18 +6859,15 @@
         <v>167257.5846</v>
       </c>
       <c r="G211" t="n">
-        <v>6219235.376818506</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7946,18 +6889,15 @@
         <v>174847.2931</v>
       </c>
       <c r="G212" t="n">
-        <v>6044388.083718506</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7979,18 +6919,15 @@
         <v>100479.9738</v>
       </c>
       <c r="G213" t="n">
-        <v>5943908.109918506</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8012,18 +6949,15 @@
         <v>542188.1742</v>
       </c>
       <c r="G214" t="n">
-        <v>5401719.935718506</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8045,18 +6979,15 @@
         <v>12085.7191</v>
       </c>
       <c r="G215" t="n">
-        <v>5413805.654818506</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8078,18 +7009,15 @@
         <v>110</v>
       </c>
       <c r="G216" t="n">
-        <v>5413915.654818506</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8111,18 +7039,15 @@
         <v>5061.653</v>
       </c>
       <c r="G217" t="n">
-        <v>5408854.001818506</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8144,18 +7069,15 @@
         <v>15936.1424</v>
       </c>
       <c r="G218" t="n">
-        <v>5392917.859418506</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8177,18 +7099,15 @@
         <v>12153.3078</v>
       </c>
       <c r="G219" t="n">
-        <v>5405071.167218505</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8210,18 +7129,15 @@
         <v>106487.0147</v>
       </c>
       <c r="G220" t="n">
-        <v>5298584.152518505</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8243,18 +7159,15 @@
         <v>15382.6529</v>
       </c>
       <c r="G221" t="n">
-        <v>5313966.805418505</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8276,18 +7189,15 @@
         <v>600</v>
       </c>
       <c r="G222" t="n">
-        <v>5314566.805418505</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8309,18 +7219,15 @@
         <v>48429.3286</v>
       </c>
       <c r="G223" t="n">
-        <v>5314566.805418505</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8342,18 +7249,15 @@
         <v>460</v>
       </c>
       <c r="G224" t="n">
-        <v>5314106.805418505</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8375,18 +7279,15 @@
         <v>149181.8323</v>
       </c>
       <c r="G225" t="n">
-        <v>5463288.637718505</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8408,18 +7309,15 @@
         <v>190014.2071</v>
       </c>
       <c r="G226" t="n">
-        <v>5273274.430618505</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8441,18 +7339,15 @@
         <v>230</v>
       </c>
       <c r="G227" t="n">
-        <v>5273504.430618505</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8474,18 +7369,15 @@
         <v>186472.4409</v>
       </c>
       <c r="G228" t="n">
-        <v>5459976.871518505</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8507,18 +7399,15 @@
         <v>27924.8429</v>
       </c>
       <c r="G229" t="n">
-        <v>5459976.871518505</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8540,18 +7429,15 @@
         <v>337163.8413</v>
       </c>
       <c r="G230" t="n">
-        <v>5122813.030218504</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8573,18 +7459,15 @@
         <v>11895.4559</v>
       </c>
       <c r="G231" t="n">
-        <v>5134708.486118505</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8606,18 +7489,15 @@
         <v>4379.8855</v>
       </c>
       <c r="G232" t="n">
-        <v>5130328.600618505</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8639,18 +7519,15 @@
         <v>329.5232</v>
       </c>
       <c r="G233" t="n">
-        <v>5129999.077418505</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8672,18 +7549,15 @@
         <v>418591.1594</v>
       </c>
       <c r="G234" t="n">
-        <v>4711407.918018505</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8705,18 +7579,15 @@
         <v>372.4257</v>
       </c>
       <c r="G235" t="n">
-        <v>4711780.343718505</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8738,18 +7609,15 @@
         <v>383078.9251</v>
       </c>
       <c r="G236" t="n">
-        <v>4328701.418618505</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8771,18 +7639,15 @@
         <v>316942.7624</v>
       </c>
       <c r="G237" t="n">
-        <v>4011758.656218505</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8804,18 +7669,15 @@
         <v>27128.1935</v>
       </c>
       <c r="G238" t="n">
-        <v>4038886.849718505</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8837,18 +7699,15 @@
         <v>118424.4657</v>
       </c>
       <c r="G239" t="n">
-        <v>3920462.384018505</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8870,18 +7729,15 @@
         <v>144979.5268</v>
       </c>
       <c r="G240" t="n">
-        <v>3920462.384018505</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8903,18 +7759,15 @@
         <v>1076042.1925</v>
       </c>
       <c r="G241" t="n">
-        <v>4996504.576518505</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8936,18 +7789,15 @@
         <v>1555.0693</v>
       </c>
       <c r="G242" t="n">
-        <v>4994949.507218505</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8969,18 +7819,15 @@
         <v>84567.458</v>
       </c>
       <c r="G243" t="n">
-        <v>5079516.965218505</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9002,18 +7849,15 @@
         <v>155796.3534</v>
       </c>
       <c r="G244" t="n">
-        <v>5079516.965218505</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9035,18 +7879,15 @@
         <v>112</v>
       </c>
       <c r="G245" t="n">
-        <v>5079628.965218505</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9068,18 +7909,15 @@
         <v>443.658</v>
       </c>
       <c r="G246" t="n">
-        <v>5079628.965218505</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9101,18 +7939,15 @@
         <v>49313.7594</v>
       </c>
       <c r="G247" t="n">
-        <v>5079628.965218505</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9134,18 +7969,15 @@
         <v>110</v>
       </c>
       <c r="G248" t="n">
-        <v>5079738.965218505</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9167,18 +7999,15 @@
         <v>386874.0219</v>
       </c>
       <c r="G249" t="n">
-        <v>4692864.943318505</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9200,18 +8029,15 @@
         <v>3906.0967</v>
       </c>
       <c r="G250" t="n">
-        <v>4696771.040018504</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9233,18 +8059,15 @@
         <v>2117.9519</v>
       </c>
       <c r="G251" t="n">
-        <v>4694653.088118505</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9266,18 +8089,15 @@
         <v>154830.2985</v>
       </c>
       <c r="G252" t="n">
-        <v>4539822.789618505</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9299,18 +8119,15 @@
         <v>33827.262</v>
       </c>
       <c r="G253" t="n">
-        <v>4539822.789618505</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9332,18 +8149,15 @@
         <v>12169.2613</v>
       </c>
       <c r="G254" t="n">
-        <v>4551992.050918506</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9365,18 +8179,15 @@
         <v>1629.5952</v>
       </c>
       <c r="G255" t="n">
-        <v>4551992.050918506</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9398,18 +8209,15 @@
         <v>11288.2007</v>
       </c>
       <c r="G256" t="n">
-        <v>4563280.251618505</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9431,18 +8239,15 @@
         <v>3462.1395</v>
       </c>
       <c r="G257" t="n">
-        <v>4563280.251618505</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9464,18 +8269,15 @@
         <v>5665.2654</v>
       </c>
       <c r="G258" t="n">
-        <v>4563280.251618505</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9497,18 +8299,15 @@
         <v>200</v>
       </c>
       <c r="G259" t="n">
-        <v>4563480.251618505</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9530,18 +8329,15 @@
         <v>163.7843</v>
       </c>
       <c r="G260" t="n">
-        <v>4563316.467318505</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9563,18 +8359,15 @@
         <v>657.8693</v>
       </c>
       <c r="G261" t="n">
-        <v>4562658.598018505</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9596,18 +8389,15 @@
         <v>226364.1959</v>
       </c>
       <c r="G262" t="n">
-        <v>4789022.793918504</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9629,18 +8419,15 @@
         <v>28500</v>
       </c>
       <c r="G263" t="n">
-        <v>4760522.793918504</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9662,18 +8449,15 @@
         <v>23718.22441289757</v>
       </c>
       <c r="G264" t="n">
-        <v>4760522.793918504</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9695,18 +8479,15 @@
         <v>10000</v>
       </c>
       <c r="G265" t="n">
-        <v>4750522.793918504</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9728,18 +8509,15 @@
         <v>53656.7933</v>
       </c>
       <c r="G266" t="n">
-        <v>4750522.793918504</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9761,18 +8539,15 @@
         <v>58248.1928</v>
       </c>
       <c r="G267" t="n">
-        <v>4808770.986718505</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9794,18 +8569,15 @@
         <v>19385.0315</v>
       </c>
       <c r="G268" t="n">
-        <v>4789385.955218505</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9827,18 +8599,15 @@
         <v>111</v>
       </c>
       <c r="G269" t="n">
-        <v>4789496.955218505</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9860,18 +8629,15 @@
         <v>47896.1626</v>
       </c>
       <c r="G270" t="n">
-        <v>4741600.792618505</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9893,18 +8659,15 @@
         <v>1508.6441</v>
       </c>
       <c r="G271" t="n">
-        <v>4741600.792618505</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9926,18 +8689,15 @@
         <v>110</v>
       </c>
       <c r="G272" t="n">
-        <v>4741710.792618505</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9959,18 +8719,15 @@
         <v>1089009.597</v>
       </c>
       <c r="G273" t="n">
-        <v>3652701.195618505</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9992,18 +8749,15 @@
         <v>204</v>
       </c>
       <c r="G274" t="n">
-        <v>3652905.195618505</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10025,18 +8779,15 @@
         <v>38310.1142</v>
       </c>
       <c r="G275" t="n">
-        <v>3614595.081418504</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10058,18 +8809,15 @@
         <v>4976.2674</v>
       </c>
       <c r="G276" t="n">
-        <v>3614595.081418504</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10091,18 +8839,15 @@
         <v>96299.19130000001</v>
       </c>
       <c r="G277" t="n">
-        <v>3518295.890118504</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10124,18 +8869,15 @@
         <v>408764.0189</v>
       </c>
       <c r="G278" t="n">
-        <v>3109531.871218504</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10157,18 +8899,15 @@
         <v>1904</v>
       </c>
       <c r="G279" t="n">
-        <v>3107627.871218504</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10190,18 +8929,15 @@
         <v>132696.8038</v>
       </c>
       <c r="G280" t="n">
-        <v>2974931.067418505</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10223,18 +8959,15 @@
         <v>200</v>
       </c>
       <c r="G281" t="n">
-        <v>2975131.067418505</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10256,18 +8989,15 @@
         <v>333</v>
       </c>
       <c r="G282" t="n">
-        <v>2975464.067418505</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10289,18 +9019,15 @@
         <v>8293.330408073716</v>
       </c>
       <c r="G283" t="n">
-        <v>2967170.737010431</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10322,18 +9049,15 @@
         <v>1000</v>
       </c>
       <c r="G284" t="n">
-        <v>2967170.737010431</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10355,18 +9079,15 @@
         <v>9782.846</v>
       </c>
       <c r="G285" t="n">
-        <v>2957387.891010431</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10388,18 +9109,15 @@
         <v>110</v>
       </c>
       <c r="G286" t="n">
-        <v>2957497.891010431</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10421,18 +9139,15 @@
         <v>586702.2185</v>
       </c>
       <c r="G287" t="n">
-        <v>2370795.672510431</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10454,18 +9169,15 @@
         <v>148536.4728</v>
       </c>
       <c r="G288" t="n">
-        <v>2370795.672510431</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10487,18 +9199,15 @@
         <v>4268.0528</v>
       </c>
       <c r="G289" t="n">
-        <v>2375063.725310431</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10520,18 +9229,15 @@
         <v>90670.20170000001</v>
       </c>
       <c r="G290" t="n">
-        <v>2284393.523610431</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10553,18 +9259,15 @@
         <v>116382.5996</v>
       </c>
       <c r="G291" t="n">
-        <v>2400776.123210431</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10586,18 +9289,15 @@
         <v>163.7843</v>
       </c>
       <c r="G292" t="n">
-        <v>2400612.338910431</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10619,18 +9319,15 @@
         <v>120</v>
       </c>
       <c r="G293" t="n">
-        <v>2400732.338910431</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10652,18 +9349,15 @@
         <v>4483.0277</v>
       </c>
       <c r="G294" t="n">
-        <v>2400732.338910431</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10685,18 +9379,15 @@
         <v>142687.8682</v>
       </c>
       <c r="G295" t="n">
-        <v>2400732.338910431</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10718,18 +9409,15 @@
         <v>56286.3167</v>
       </c>
       <c r="G296" t="n">
-        <v>2344446.022210431</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10751,18 +9439,15 @@
         <v>120</v>
       </c>
       <c r="G297" t="n">
-        <v>2344566.022210431</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10784,18 +9469,15 @@
         <v>32011.5548</v>
       </c>
       <c r="G298" t="n">
-        <v>2312554.467410431</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10817,18 +9499,15 @@
         <v>120</v>
       </c>
       <c r="G299" t="n">
-        <v>2312674.467410431</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10850,18 +9529,15 @@
         <v>10161.4767</v>
       </c>
       <c r="G300" t="n">
-        <v>2312674.467410431</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10883,18 +9559,15 @@
         <v>395000</v>
       </c>
       <c r="G301" t="n">
-        <v>1917674.467410431</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10916,18 +9589,15 @@
         <v>23186.3313</v>
       </c>
       <c r="G302" t="n">
-        <v>1917674.467410431</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10949,18 +9619,15 @@
         <v>82214.8665</v>
       </c>
       <c r="G303" t="n">
-        <v>1917674.467410431</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10982,18 +9649,15 @@
         <v>333</v>
       </c>
       <c r="G304" t="n">
-        <v>1918007.467410431</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11015,18 +9679,15 @@
         <v>136.1954</v>
       </c>
       <c r="G305" t="n">
-        <v>1917871.272010431</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11048,18 +9709,15 @@
         <v>1787.9699</v>
       </c>
       <c r="G306" t="n">
-        <v>1916083.302110431</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11081,18 +9739,15 @@
         <v>120</v>
       </c>
       <c r="G307" t="n">
-        <v>1916203.302110431</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11114,18 +9769,15 @@
         <v>611.5106</v>
       </c>
       <c r="G308" t="n">
-        <v>1916203.302110431</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11147,18 +9799,15 @@
         <v>15094.422</v>
       </c>
       <c r="G309" t="n">
-        <v>1901108.880110431</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11180,18 +9829,15 @@
         <v>200</v>
       </c>
       <c r="G310" t="n">
-        <v>1901308.880110431</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11213,18 +9859,15 @@
         <v>121306.1048</v>
       </c>
       <c r="G311" t="n">
-        <v>1780002.775310431</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11246,18 +9889,15 @@
         <v>120</v>
       </c>
       <c r="G312" t="n">
-        <v>1780122.775310431</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11279,18 +9919,15 @@
         <v>22000</v>
       </c>
       <c r="G313" t="n">
-        <v>1802122.775310431</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11312,18 +9949,15 @@
         <v>379.619</v>
       </c>
       <c r="G314" t="n">
-        <v>1801743.156310431</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11345,18 +9979,15 @@
         <v>200</v>
       </c>
       <c r="G315" t="n">
-        <v>1801943.156310431</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11378,18 +10009,15 @@
         <v>60000</v>
       </c>
       <c r="G316" t="n">
-        <v>1741943.156310431</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11411,18 +10039,15 @@
         <v>120</v>
       </c>
       <c r="G317" t="n">
-        <v>1742063.156310431</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11444,18 +10069,15 @@
         <v>5640.4671</v>
       </c>
       <c r="G318" t="n">
-        <v>1742063.156310431</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11477,18 +10099,15 @@
         <v>16693.3632</v>
       </c>
       <c r="G319" t="n">
-        <v>1725369.793110431</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11510,18 +10129,15 @@
         <v>60200</v>
       </c>
       <c r="G320" t="n">
-        <v>1665169.793110431</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11543,18 +10159,15 @@
         <v>264807.0724</v>
       </c>
       <c r="G321" t="n">
-        <v>1400362.720710431</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11576,18 +10189,15 @@
         <v>120</v>
       </c>
       <c r="G322" t="n">
-        <v>1400482.720710431</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11609,18 +10219,15 @@
         <v>2803.121</v>
       </c>
       <c r="G323" t="n">
-        <v>1397679.599710431</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11642,18 +10249,15 @@
         <v>275849.9229</v>
       </c>
       <c r="G324" t="n">
-        <v>1121829.676810431</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11675,18 +10279,15 @@
         <v>200</v>
       </c>
       <c r="G325" t="n">
-        <v>1122029.676810431</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11708,18 +10309,15 @@
         <v>201932.2013</v>
       </c>
       <c r="G326" t="n">
-        <v>920097.4755104313</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11741,18 +10339,15 @@
         <v>17181.6191</v>
       </c>
       <c r="G327" t="n">
-        <v>920097.4755104313</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11774,18 +10369,15 @@
         <v>120</v>
       </c>
       <c r="G328" t="n">
-        <v>920217.4755104313</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11807,18 +10399,15 @@
         <v>111584.0509226564</v>
       </c>
       <c r="G329" t="n">
-        <v>1031801.526433088</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11840,18 +10429,15 @@
         <v>21953.89681668496</v>
       </c>
       <c r="G330" t="n">
-        <v>1031801.526433088</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11873,18 +10459,15 @@
         <v>8888</v>
       </c>
       <c r="G331" t="n">
-        <v>1022913.526433088</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11906,18 +10489,15 @@
         <v>215726.4176</v>
       </c>
       <c r="G332" t="n">
-        <v>807187.1088330878</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11939,18 +10519,15 @@
         <v>17283.7396</v>
       </c>
       <c r="G333" t="n">
-        <v>789903.3692330879</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11972,18 +10549,15 @@
         <v>111</v>
       </c>
       <c r="G334" t="n">
-        <v>790014.3692330879</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12005,18 +10579,15 @@
         <v>2141.793</v>
       </c>
       <c r="G335" t="n">
-        <v>790014.3692330879</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
